--- a/sql/Wedding Guest List_160808.xlsx
+++ b/sql/Wedding Guest List_160808.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\timandkimberly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\timandkimberly\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6720" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="589">
   <si>
     <t>Family - Kim</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Mike +1</t>
   </si>
   <si>
-    <t>Chrine Van Horn</t>
-  </si>
-  <si>
     <t>Robert Wood</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Emily Byorick</t>
   </si>
   <si>
-    <t>Neal</t>
-  </si>
-  <si>
     <t>Rob Thomas</t>
   </si>
   <si>
@@ -1803,6 +1797,12 @@
   </si>
   <si>
     <t>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Colby','Dennis',79,1,1);</t>
+  </si>
+  <si>
+    <t>Christine Van Horn</t>
+  </si>
+  <si>
+    <t>Neal Scott</t>
   </si>
 </sst>
 </file>
@@ -1930,6 +1930,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2206,23 +2211,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2268,13 +2273,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2294,13 +2299,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -2320,11 +2325,11 @@
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2341,606 +2346,610 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>588</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -2959,65 +2968,65 @@
       <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="11"/>
+    <col min="2" max="2" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.1328125" style="11"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.86328125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" t="s">
         <v>333</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>LEFT(A2,FIND(" ",A2)-1)</f>
@@ -3055,12 +3064,12 @@
         <v>32065</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C66" si="5">LEFT(A3,FIND(" ",A3)-1)</f>
@@ -3098,12 +3107,12 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3141,12 +3150,12 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>LEFT(A5,FIND(" ",A5)-1)</f>
@@ -3184,12 +3193,12 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3227,12 +3236,12 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3270,12 +3279,12 @@
         <v>32244</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>LEFT(A8,FIND(" ",A8)-1)</f>
@@ -3313,12 +3322,12 @@
         <v>32258</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3356,12 +3365,12 @@
         <v>32258</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>LEFT(A10,FIND(" ",A10)-1)</f>
@@ -3399,12 +3408,12 @@
         <v>92106</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3442,12 +3451,12 @@
         <v>92106</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>LEFT(A12,FIND(" ",A12)-1)</f>
@@ -3485,12 +3494,12 @@
         <v>32222</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>LEFT(A13,FIND(" ",A13)-1)</f>
@@ -3528,12 +3537,12 @@
         <v>32222</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>LEFT(A14,FIND(" ",A14)-1)</f>
@@ -3571,12 +3580,12 @@
         <v>32317</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3614,12 +3623,12 @@
         <v>32317</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3657,12 +3666,12 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3700,12 +3709,12 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>LEFT(A18,FIND(" ",A18)-1)</f>
@@ -3743,12 +3752,12 @@
         <v>32244</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3786,12 +3795,12 @@
         <v>32244</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3829,12 +3838,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3872,12 +3881,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3915,12 +3924,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3958,12 +3967,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4001,12 +4010,12 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4044,12 +4053,12 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4087,12 +4096,12 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4130,12 +4139,12 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4173,12 +4182,12 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4216,12 +4225,12 @@
         <v>07076</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4259,12 +4268,12 @@
         <v>07076</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>LEFT(A31,FIND(" ",A31)-1)</f>
@@ -4302,12 +4311,12 @@
         <v>33709</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4345,12 +4354,12 @@
         <v>33709</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4388,12 +4397,12 @@
         <v>08804</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4431,12 +4440,12 @@
         <v>08804</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4474,12 +4483,12 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4517,12 +4526,12 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4560,12 +4569,12 @@
         <v>07035</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4603,12 +4612,12 @@
         <v>07035</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>LEFT(A39,FIND(" ",A39)-1)</f>
@@ -4646,12 +4655,12 @@
         <v>08809</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4689,12 +4698,12 @@
         <v>08809</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4732,12 +4741,12 @@
         <v>07030</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4775,12 +4784,12 @@
         <v>07030</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4818,12 +4827,12 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4861,12 +4870,12 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4904,12 +4913,12 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4947,12 +4956,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4990,12 +4999,12 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5033,12 +5042,12 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5076,12 +5085,12 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5119,12 +5128,12 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5162,12 +5171,12 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>LEFT(A52,FIND(" ",A52)-1)</f>
@@ -5205,12 +5214,12 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5248,12 +5257,12 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5291,12 +5300,12 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>LEFT(A55,FIND(" ",A55)-1)</f>
@@ -5334,12 +5343,12 @@
         <v>32311</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C56" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5377,12 +5386,12 @@
         <v>32311</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5420,12 +5429,12 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5463,12 +5472,12 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5506,12 +5515,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5549,12 +5558,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5592,12 +5601,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5635,12 +5644,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5678,12 +5687,12 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C64" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5721,12 +5730,12 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5764,12 +5773,12 @@
         <v>32578</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C66" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5807,12 +5816,12 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" ref="C67:C124" si="17">LEFT(A67,FIND(" ",A67)-1)</f>
@@ -5826,7 +5835,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="12"/>
@@ -5849,12 +5858,12 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" si="17"/>
@@ -5868,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="12"/>
@@ -5891,12 +5900,12 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>LEFT(A69,FIND(" ",A69)-1)</f>
@@ -5934,12 +5943,12 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" si="17"/>
@@ -5977,12 +5986,12 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6020,12 +6029,12 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C72" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6063,12 +6072,12 @@
         <v>34685</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6106,12 +6115,12 @@
         <v>34685</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6125,7 +6134,7 @@
         <v>44</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G74" t="str">
         <f>A74</f>
@@ -6152,12 +6161,12 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6171,7 +6180,7 @@
         <v>45</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G75" t="str">
         <f>A75</f>
@@ -6198,12 +6207,12 @@
         <v>33617</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6217,7 +6226,7 @@
         <v>46</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G76" t="str">
         <f>A76</f>
@@ -6244,12 +6253,12 @@
         <v>33609</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>LEFT(A77,FIND(" ",A77)-1)</f>
@@ -6287,12 +6296,12 @@
         <v>33624</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6330,12 +6339,12 @@
         <v>33624</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6373,12 +6382,12 @@
         <v>33484</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6416,12 +6425,12 @@
         <v>33484</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6459,12 +6468,12 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C82" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6502,12 +6511,12 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>LEFT(A83,FIND(" ",A83)-1)</f>
@@ -6545,12 +6554,12 @@
         <v>33418</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6588,12 +6597,12 @@
         <v>33418</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6607,7 +6616,7 @@
         <v>51</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G85" t="str">
         <f>A85</f>
@@ -6634,12 +6643,12 @@
         <v>02129</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>LEFT(A86,FIND(" ",A86)-1)</f>
@@ -6677,12 +6686,12 @@
         <v>90068</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6720,12 +6729,12 @@
         <v>90068</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6763,12 +6772,12 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C89" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6806,12 +6815,12 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6849,12 +6858,12 @@
         <v>80220</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6892,12 +6901,12 @@
         <v>80220</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>LEFT(A92,FIND(" ",A92)-1)</f>
@@ -6935,12 +6944,12 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6978,12 +6987,12 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" si="17"/>
@@ -6997,7 +7006,7 @@
         <v>56</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G94" t="str">
         <f>A94</f>
@@ -7024,12 +7033,12 @@
         <v>33624</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C95" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7067,12 +7076,12 @@
         <v>34232</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7110,12 +7119,12 @@
         <v>34232</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7153,12 +7162,12 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7196,12 +7205,12 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7239,12 +7248,12 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7282,12 +7291,12 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7325,12 +7334,12 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7368,12 +7377,12 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7411,12 +7420,12 @@
         <v>33496</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7454,12 +7463,12 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7497,12 +7506,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7540,12 +7549,12 @@
         <v>33445</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7583,12 +7592,12 @@
         <v>33445</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7602,7 +7611,7 @@
         <v>64</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G108" t="str">
         <f>A108</f>
@@ -7629,12 +7638,12 @@
         <v>33445</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7672,12 +7681,12 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7715,12 +7724,12 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7758,12 +7767,12 @@
         <v>34233</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7801,12 +7810,12 @@
         <v>34233</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7844,12 +7853,12 @@
         <v>34231</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7887,12 +7896,12 @@
         <v>34231</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C115" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7930,12 +7939,12 @@
         <v>34223</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" si="17"/>
@@ -7973,12 +7982,12 @@
         <v>34223</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>LEFT(A117,FIND(" ",A117)-1)</f>
@@ -8016,12 +8025,12 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8059,12 +8068,12 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>LEFT(A119,FIND(" ",A119)-1)</f>
@@ -8078,12 +8087,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8097,12 +8106,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8140,12 +8149,12 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8183,12 +8192,12 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8226,12 +8235,12 @@
         <v>34275</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" si="17"/>
@@ -8269,12 +8278,12 @@
         <v>34275</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" ref="C125:C135" si="29">LEFT(A125,FIND(" ",A125)-1)</f>
@@ -8288,7 +8297,7 @@
         <v>73</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G125" t="str">
         <f>A125</f>
@@ -8315,12 +8324,12 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>LEFT(A126,FIND(" ",A126)-1)</f>
@@ -8358,12 +8367,12 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C127" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8401,12 +8410,12 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>LEFT(A128,FIND(" ",A128)-1)</f>
@@ -8444,12 +8453,12 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8487,12 +8496,12 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C130" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8506,7 +8515,7 @@
         <v>76</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G130" t="str">
         <f>A130</f>
@@ -8533,12 +8542,12 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C131" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8576,12 +8585,12 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C132" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8619,12 +8628,12 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C133" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8642,12 +8651,12 @@
         <v>James and Nancy Fitch</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C134" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8665,12 +8674,12 @@
         <v>James and Nancy Fitch</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C135" s="4" t="str">
         <f t="shared" si="29"/>
@@ -8684,7 +8693,7 @@
         <v>79</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G135" t="str">
         <f>A135</f>
@@ -8725,1160 +8734,1160 @@
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>215</v>
       </c>
-      <c r="E2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
       </c>
       <c r="F3" s="7">
         <v>18947</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
         <v>221</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
         <v>223</v>
       </c>
-      <c r="E4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" t="s">
-        <v>227</v>
       </c>
       <c r="F6" s="7">
         <v>34243</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7">
         <v>18947</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7">
         <v>33709</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" t="s">
         <v>229</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
         <v>231</v>
       </c>
-      <c r="E9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>233</v>
       </c>
-      <c r="E10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>235</v>
-      </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7">
         <v>34232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7">
         <v>33483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F15" s="7">
         <v>33496</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7">
         <v>33445</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7">
         <v>33445</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" t="s">
         <v>240</v>
-      </c>
-      <c r="B19" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" t="s">
-        <v>242</v>
       </c>
       <c r="F19" s="7">
         <v>22312</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7">
         <v>34233</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F21" s="7">
         <v>34231</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" t="s">
         <v>244</v>
       </c>
-      <c r="B22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" t="s">
-        <v>246</v>
-      </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7">
         <v>34223</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" t="s">
         <v>247</v>
       </c>
-      <c r="B23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" t="s">
-        <v>249</v>
-      </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F23" s="7">
         <v>34203</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" t="s">
         <v>250</v>
       </c>
-      <c r="B24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F24" s="7">
         <v>34275</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F25" s="7">
         <v>32065</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" t="s">
         <v>255</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>256</v>
-      </c>
-      <c r="D26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" t="s">
-        <v>258</v>
       </c>
       <c r="F26" s="7">
         <v>29405</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F27" s="7">
         <v>32034</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
         <v>261</v>
-      </c>
-      <c r="B28" t="s">
-        <v>360</v>
-      </c>
-      <c r="D28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" t="s">
-        <v>263</v>
       </c>
       <c r="F28" s="7">
         <v>92106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F29" s="7">
         <v>32258</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F30" s="7">
         <v>32244</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7">
         <v>32244</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F32" s="14">
         <v>32222</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" t="s">
         <v>268</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>269</v>
-      </c>
-      <c r="D33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" t="s">
-        <v>271</v>
       </c>
       <c r="F33" s="7">
         <v>30030</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" t="s">
         <v>272</v>
       </c>
-      <c r="B34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" t="s">
-        <v>274</v>
-      </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7">
         <v>32317</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7">
         <v>32578</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" t="s">
         <v>277</v>
       </c>
-      <c r="B36" t="s">
-        <v>278</v>
-      </c>
-      <c r="D36" t="s">
-        <v>279</v>
-      </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7">
         <v>34685</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" t="s">
         <v>280</v>
       </c>
-      <c r="C37" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" t="s">
-        <v>282</v>
-      </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7">
         <v>33626</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7">
         <v>33617</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F39" s="7">
         <v>33609</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40" s="7">
         <v>33624</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F41" s="7">
         <v>93041</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>288</v>
-      </c>
       <c r="D42" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F42" s="14">
         <v>33484</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
         <v>289</v>
       </c>
-      <c r="B43" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" t="s">
-        <v>291</v>
-      </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F43" s="7">
         <v>30318</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
         <v>292</v>
       </c>
-      <c r="B44" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" t="s">
-        <v>294</v>
-      </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" s="7">
         <v>33418</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" t="s">
+        <v>366</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45" t="s">
         <v>295</v>
       </c>
-      <c r="B45" t="s">
-        <v>368</v>
-      </c>
-      <c r="C45" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" t="s">
-        <v>297</v>
-      </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F45" s="7">
         <v>33767</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" t="s">
         <v>298</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" t="s">
         <v>367</v>
       </c>
-      <c r="C46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="D47" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" t="s">
-        <v>369</v>
-      </c>
-      <c r="D47" t="s">
-        <v>304</v>
-      </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F47" s="7">
         <v>90068</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" s="7">
         <v>33626</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" t="s">
         <v>306</v>
       </c>
-      <c r="B49" t="s">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>308</v>
-      </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F49" s="7">
         <v>32771</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F50" s="7">
         <v>43238</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" t="s">
         <v>310</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>311</v>
-      </c>
-      <c r="D51" t="s">
-        <v>312</v>
-      </c>
-      <c r="E51" t="s">
-        <v>313</v>
       </c>
       <c r="F51" s="7">
         <v>80220</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F52" s="7">
         <v>34202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" t="s">
         <v>316</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>317</v>
-      </c>
-      <c r="D54" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" t="s">
-        <v>319</v>
       </c>
       <c r="F54" s="7">
         <v>85142</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F55" s="7">
         <v>33624</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F57" s="7">
         <v>32311</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>322</v>
       </c>
-      <c r="B58" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" t="s">
-        <v>215</v>
-      </c>
-      <c r="E58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>324</v>
-      </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F59" s="7">
         <v>32065</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" t="s">
         <v>325</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="E60" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>327</v>
       </c>
-      <c r="E60" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="B68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>329</v>
-      </c>
-      <c r="B68" t="s">
-        <v>374</v>
-      </c>
-      <c r="C68" t="s">
-        <v>330</v>
-      </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F68" s="7">
         <v>33647</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -9894,73 +9903,73 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.86328125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>415</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>417</v>
       </c>
-      <c r="B2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" t="s">
         <v>418</v>
-      </c>
-      <c r="D2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" t="s">
-        <v>420</v>
       </c>
       <c r="F2">
         <v>70130</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I2" s="16">
         <v>29.92604</v>
@@ -9969,30 +9978,30 @@
         <v>-90.064903999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="B3" t="s">
-        <v>430</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3">
         <v>70130</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I3" s="16">
         <v>29.955870000000001</v>
@@ -10001,30 +10010,30 @@
         <v>-90.065048000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F4">
         <v>70130</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I4" s="16">
         <v>29.954294000000001</v>
@@ -10033,30 +10042,30 @@
         <v>-90.067777000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" t="s">
         <v>435</v>
       </c>
-      <c r="C5" t="s">
-        <v>437</v>
-      </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F5">
         <v>70130</v>
       </c>
       <c r="G5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I5" s="16">
         <v>29.95383</v>
@@ -10065,30 +10074,30 @@
         <v>-90.065278000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F6">
         <v>70116</v>
       </c>
       <c r="G6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I6" s="16">
         <v>29.958289000000001</v>
@@ -10097,7 +10106,7 @@
         <v>-90.065389999999994</v>
       </c>
       <c r="K6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -10109,42 +10118,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
+    <sheetView topLeftCell="E100" workbookViewId="0">
       <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="8" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="8"/>
+    <col min="7" max="8" width="108.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -10163,17 +10172,17 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE("INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('",B2,"','",C2,"',",D2,",",E2,",",F2,");")</f>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Pam','Bean',1,1,NULL);</v>
       </c>
       <c r="H2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -10192,17 +10201,17 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="2">CONCATENATE("INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('",B3,"','",C3,"',",D3,",",E3,",",F3,");")</f>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Brad','Bean',2,1,NULL);</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
@@ -10221,19 +10230,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Marilyn','Bean',2,1,NULL);</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>LEFT(A5,FIND(" ",A5)-1)</f>
@@ -10250,17 +10259,17 @@
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Robert','Wood',3,1,NULL);</v>
       </c>
       <c r="H5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
@@ -10279,19 +10288,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jennifer','Wood',3,1,NULL);</v>
       </c>
       <c r="H6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10308,19 +10317,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Dean','West',4,1,NULL);</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>LEFT(A8,FIND(" ",A8)-1)</f>
@@ -10337,19 +10346,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Dan','Peck',5,1,NULL);</v>
       </c>
       <c r="H8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10366,19 +10375,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Robin','Peck',5,1,NULL);</v>
       </c>
       <c r="H9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>LEFT(A10,FIND(" ",A10)-1)</f>
@@ -10395,19 +10404,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Joe','Jeffers',6,1,NULL);</v>
       </c>
       <c r="H10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10424,19 +10433,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Marilyn','Jeffers',6,1,NULL);</v>
       </c>
       <c r="H11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>LEFT(A12,FIND(" ",A12)-1)</f>
@@ -10453,19 +10462,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Richard','Disney',7,1,NULL);</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>LEFT(A13,FIND(" ",A13)-1)</f>
@@ -10482,19 +10491,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Alicia','Disney',7,1,NULL);</v>
       </c>
       <c r="H13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>LEFT(A14,FIND(" ",A14)-1)</f>
@@ -10511,19 +10520,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Matt','Burke',8,1,NULL);</v>
       </c>
       <c r="H14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10540,19 +10549,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Danielle','Burke',8,1,NULL);</v>
       </c>
       <c r="H15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10569,19 +10578,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Adam','Bourque',9,1,NULL);</v>
       </c>
       <c r="H16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10598,19 +10607,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Vica','Bourque',9,1,NULL);</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>LEFT(A18,FIND(" ",A18)-1)</f>
@@ -10627,19 +10636,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Andrew','Fortenberry',10,1,NULL);</v>
       </c>
       <c r="H18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10656,19 +10665,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ashley','Fortenberry',10,1,NULL);</v>
       </c>
       <c r="H19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10685,19 +10694,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lowell','Yost',11,1,NULL);</v>
       </c>
       <c r="H20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10714,19 +10723,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jerry','Yost',11,1,NULL);</v>
       </c>
       <c r="H21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10743,19 +10752,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Mike','Reed',12,1,NULL);</v>
       </c>
       <c r="H22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10772,17 +10781,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lisa','Reed',12,1,NULL);</v>
       </c>
       <c r="H23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -10801,19 +10810,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Debra','Vasnelis',13,1,NULL);</v>
       </c>
       <c r="H24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10830,17 +10839,17 @@
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Patrick','Vasnelis',14,1,NULL);</v>
       </c>
       <c r="H25" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
@@ -10859,19 +10868,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Tammy','Dingler',14,1,NULL);</v>
       </c>
       <c r="H26" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10888,19 +10897,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Michael','Essex',15,1,NULL);</v>
       </c>
       <c r="H27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10917,19 +10926,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Susan','Bower',15,1,NULL);</v>
       </c>
       <c r="H28" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10946,19 +10955,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('George','Vasnelis',16,1,NULL);</v>
       </c>
       <c r="H29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -10975,19 +10984,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Diana','Vasnelis',16,1,NULL);</v>
       </c>
       <c r="H30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>LEFT(A31,FIND(" ",A31)-1)</f>
@@ -11004,19 +11013,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Sam','Hall',17,1,NULL);</v>
       </c>
       <c r="H31" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11033,19 +11042,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Nancy','Hall',17,1,NULL);</v>
       </c>
       <c r="H32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11062,19 +11071,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Bill','Weldon',18,1,NULL);</v>
       </c>
       <c r="H33" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11091,19 +11100,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Laurie','Weldon',18,1,NULL);</v>
       </c>
       <c r="H34" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11120,19 +11129,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Janice','Essex',19,1,NULL);</v>
       </c>
       <c r="H35" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11149,19 +11158,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Steve','Hess',19,1,NULL);</v>
       </c>
       <c r="H36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11178,19 +11187,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ryan','Vasnelis',20,1,NULL);</v>
       </c>
       <c r="H37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11207,19 +11216,19 @@
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Dana','Stone',20,1,NULL);</v>
       </c>
       <c r="H38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>LEFT(A39,FIND(" ",A39)-1)</f>
@@ -11236,19 +11245,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Steve','Mena',21,1,NULL);</v>
       </c>
       <c r="H39" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11265,19 +11274,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lauren','Vasnelis',21,1,NULL);</v>
       </c>
       <c r="H40" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11294,19 +11303,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Brian','Weldon',22,1,NULL);</v>
       </c>
       <c r="H41" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11323,19 +11332,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lauren','Jewski',22,1,NULL);</v>
       </c>
       <c r="H42" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11352,19 +11361,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Andrew','Weldon',23,1,NULL);</v>
       </c>
       <c r="H43" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11381,19 +11390,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kristen','Weldon',23,1,NULL);</v>
       </c>
       <c r="H44" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11410,19 +11419,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Daniel','Weldon',24,1,NULL);</v>
       </c>
       <c r="H45" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11439,19 +11448,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Shannon','Slowey',24,1,NULL);</v>
       </c>
       <c r="H46" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11468,19 +11477,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Katie','Byorick',25,1,NULL);</v>
       </c>
       <c r="H47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11497,19 +11506,19 @@
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Becca','Byorick',26,1,NULL);</v>
       </c>
       <c r="H48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11526,19 +11535,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Meghan','Byorick',27,1,NULL);</v>
       </c>
       <c r="H49" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11555,17 +11564,17 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Emily','Byorick',28,1,NULL);</v>
       </c>
       <c r="H50" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
         <v>9</v>
       </c>
@@ -11584,19 +11593,19 @@
         <v>4</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kim','Wiggins',29,4,NULL);</v>
       </c>
       <c r="H51" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B52" s="4" t="str">
         <f>LEFT(A52,FIND(" ",A52)-1)</f>
@@ -11613,17 +11622,17 @@
         <v>4</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Mr','Banks ',30,4,NULL);</v>
       </c>
       <c r="H52" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -11642,17 +11651,17 @@
         <v>4</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lynn','Banks',30,4,NULL);</v>
       </c>
       <c r="H53" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="19" t="s">
         <v>21</v>
       </c>
@@ -11671,19 +11680,19 @@
         <v>4</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Patti','Linehan',31,4,NULL);</v>
       </c>
       <c r="H54" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B55" s="4" t="str">
         <f>LEFT(A55,FIND(" ",A55)-1)</f>
@@ -11700,19 +11709,19 @@
         <v>4</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Greg','Follensbee',32,4,NULL);</v>
       </c>
       <c r="H55" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11729,19 +11738,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Marsha','Follensbee',32,4,NULL);</v>
       </c>
       <c r="H56" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11758,19 +11767,19 @@
         <v>4</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Valerie','White',33,4,NULL);</v>
       </c>
       <c r="H57" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11787,19 +11796,19 @@
         <v>4</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kris','Lay',34,4,NULL);</v>
       </c>
       <c r="H58" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11816,19 +11825,19 @@
         <v>4</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Bill','Blalock',35,4,NULL);</v>
       </c>
       <c r="H59" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11845,19 +11854,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Cheryl','Blalock',35,4,NULL);</v>
       </c>
       <c r="H60" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11874,19 +11883,19 @@
         <v>4</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Nick','Kateras',36,4,NULL);</v>
       </c>
       <c r="H61" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11903,19 +11912,19 @@
         <v>4</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Alice','Kateras',36,4,NULL);</v>
       </c>
       <c r="H62" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11932,19 +11941,19 @@
         <v>4</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('George','Henshaw',37,4,NULL);</v>
       </c>
       <c r="H63" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11961,19 +11970,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kathy','Henshaw',37,4,NULL);</v>
       </c>
       <c r="H64" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11990,19 +11999,19 @@
         <v>4</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Barbie','Edge',38,4,NULL);</v>
       </c>
       <c r="H65" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -12019,17 +12028,17 @@
         <v>4</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Leanne','Webber ',39,4,NULL);</v>
       </c>
       <c r="H66" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="19" t="s">
         <v>10</v>
       </c>
@@ -12048,17 +12057,17 @@
         <v>4</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="5">CONCATENATE("INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('",B67,"','",C67,"',",D67,",",E67,",",F67,");")</f>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('John','Casey',40,4,NULL);</v>
       </c>
       <c r="H67" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="19" t="s">
         <v>16</v>
       </c>
@@ -12077,17 +12086,17 @@
         <v>4</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jo','Casey',40,4,NULL);</v>
       </c>
       <c r="H68" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="19" t="s">
         <v>27</v>
       </c>
@@ -12106,17 +12115,17 @@
         <v>4</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('John','Kalinich',41,4,NULL);</v>
       </c>
       <c r="H69" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="19" t="s">
         <v>22</v>
       </c>
@@ -12135,19 +12144,19 @@
         <v>4</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Madeline','Kalinich',41,4,NULL);</v>
       </c>
       <c r="H70" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12164,17 +12173,17 @@
         <v>4</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Donna','Degrau',42,4,NULL);</v>
       </c>
       <c r="H71" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="19" t="s">
         <v>11</v>
       </c>
@@ -12193,17 +12202,17 @@
         <v>2</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Shannon','Stowers',43,2,NULL);</v>
       </c>
       <c r="H72" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="19" t="s">
         <v>17</v>
       </c>
@@ -12222,19 +12231,19 @@
         <v>2</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Sarah','Stowers',43,2,NULL);</v>
       </c>
       <c r="H73" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12258,12 +12267,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Michael','Whealen',44,2,1);</v>
       </c>
       <c r="H74" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12287,12 +12296,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Mary','Hsu',45,2,1);</v>
       </c>
       <c r="H75" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12316,12 +12325,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Christina','Lendemann',46,2,1);</v>
       </c>
       <c r="H76" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B77" s="4" t="str">
         <f>LEFT(A77,FIND(" ",A77)-1)</f>
@@ -12338,19 +12347,19 @@
         <v>2</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ben','Dessing',47,2,NULL);</v>
       </c>
       <c r="H77" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12367,19 +12376,19 @@
         <v>2</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Keri','Dessing',47,2,NULL);</v>
       </c>
       <c r="H78" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12396,19 +12405,19 @@
         <v>2</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Nick','Perez',48,2,NULL);</v>
       </c>
       <c r="H79" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12425,19 +12434,19 @@
         <v>2</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ashley','Perez',48,2,NULL);</v>
       </c>
       <c r="H80" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12454,19 +12463,19 @@
         <v>2</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Brandon','Burris ',49,2,NULL);</v>
       </c>
       <c r="H81" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12483,19 +12492,19 @@
         <v>2</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Audrey','Burris',49,2,NULL);</v>
       </c>
       <c r="H82" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B83" s="4" t="str">
         <f>LEFT(A83,FIND(" ",A83)-1)</f>
@@ -12512,19 +12521,19 @@
         <v>2</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Hawkeye','Wayne',50,2,NULL);</v>
       </c>
       <c r="H83" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12541,19 +12550,19 @@
         <v>2</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Beth','Wayne',50,2,NULL);</v>
       </c>
       <c r="H84" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12577,12 +12586,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kimberly','Straub',51,2,1);</v>
       </c>
       <c r="H85" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B86" s="4" t="str">
         <f>LEFT(A86,FIND(" ",A86)-1)</f>
@@ -12599,19 +12608,19 @@
         <v>2</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Matthew','Shaefer',52,2,NULL);</v>
       </c>
       <c r="H86" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12628,19 +12637,19 @@
         <v>2</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Cammie','Shaefer',52,2,NULL);</v>
       </c>
       <c r="H87" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12657,19 +12666,19 @@
         <v>2</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jace','Crooke',53,2,NULL);</v>
       </c>
       <c r="H88" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12686,19 +12695,19 @@
         <v>2</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Eva','Crooke',53,2,NULL);</v>
       </c>
       <c r="H89" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12715,19 +12724,19 @@
         <v>2</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Adam','Yeager',54,2,NULL);</v>
       </c>
       <c r="H90" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12744,19 +12753,19 @@
         <v>2</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Natasha','Yeager',54,2,NULL);</v>
       </c>
       <c r="H91" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" s="4" t="str">
         <f>LEFT(A92,FIND(" ",A92)-1)</f>
@@ -12773,19 +12782,19 @@
         <v>2</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('John','Sissoyev ',55,2,NULL);</v>
       </c>
       <c r="H92" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12802,19 +12811,19 @@
         <v>2</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Stacy','Sissoyev ',55,2,NULL);</v>
       </c>
       <c r="H93" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12838,10 +12847,10 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Terrie','Uiterwyk',56,2,1);</v>
       </c>
       <c r="H94" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="19" t="s">
         <v>12</v>
       </c>
@@ -12860,19 +12869,19 @@
         <v>2</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ryan','Jaso',57,2,NULL);</v>
       </c>
       <c r="H95" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12889,19 +12898,19 @@
         <v>2</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jennifer','Jaso',57,2,NULL);</v>
       </c>
       <c r="H96" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12918,19 +12927,19 @@
         <v>2</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Greg','VanHorn',58,2,NULL);</v>
       </c>
       <c r="H97" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12947,19 +12956,19 @@
         <v>2</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Christine','VanHorn',58,2,NULL);</v>
       </c>
       <c r="H98" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -12976,19 +12985,19 @@
         <v>2</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Christian','VanHorn',59,2,NULL);</v>
       </c>
       <c r="H99" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13005,19 +13014,19 @@
         <v>2</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kandace','Bisignano',59,2,NULL);</v>
       </c>
       <c r="H100" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13034,19 +13043,19 @@
         <v>2</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ryan','VanHorn',60,2,NULL);</v>
       </c>
       <c r="H101" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13063,19 +13072,19 @@
         <v>2</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jessica','VanHorn',60,2,NULL);</v>
       </c>
       <c r="H102" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13092,19 +13101,19 @@
         <v>2</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Alexandra','VanHorn',61,2,NULL);</v>
       </c>
       <c r="H103" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13121,19 +13130,19 @@
         <v>2</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Anthony','Ercolino',62,2,NULL);</v>
       </c>
       <c r="H104" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13150,19 +13159,19 @@
         <v>2</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Kimberly','Ercolino',62,2,NULL);</v>
       </c>
       <c r="H105" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13179,19 +13188,19 @@
         <v>2</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Dan','DeOliveira',63,2,NULL);</v>
       </c>
       <c r="H106" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13208,19 +13217,19 @@
         <v>2</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jessica','Francesca',63,2,NULL);</v>
       </c>
       <c r="H107" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13244,12 +13253,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Brian','Dietlein',64,2,1);</v>
       </c>
       <c r="H108" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13266,19 +13275,19 @@
         <v>2</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Joe','Lanza',65,2,NULL);</v>
       </c>
       <c r="H109" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13295,19 +13304,19 @@
         <v>2</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lauren','Lanza',65,2,NULL);</v>
       </c>
       <c r="H110" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13324,19 +13333,19 @@
         <v>2</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Michael','Coad',66,2,NULL);</v>
       </c>
       <c r="H111" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13353,19 +13362,19 @@
         <v>2</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lianne','Coad',66,2,NULL);</v>
       </c>
       <c r="H112" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13382,19 +13391,19 @@
         <v>2</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jacob','Coad',67,2,NULL);</v>
       </c>
       <c r="H113" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13411,19 +13420,19 @@
         <v>2</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Liz','Coad',67,2,NULL);</v>
       </c>
       <c r="H114" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13440,19 +13449,19 @@
         <v>2</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Skip','Warmack',68,2,NULL);</v>
       </c>
       <c r="H115" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13469,19 +13478,19 @@
         <v>2</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Jessica','Warmack',68,2,NULL);</v>
       </c>
       <c r="H116" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B117" s="4" t="str">
         <f>LEFT(A117,FIND(" ",A117)-1)</f>
@@ -13498,19 +13507,19 @@
         <v>2</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('David','Lubinsky',69,2,NULL);</v>
       </c>
       <c r="H117" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13527,19 +13536,19 @@
         <v>2</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Rachel','Lubinsky',69,2,NULL);</v>
       </c>
       <c r="H118" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B119" s="4" t="str">
         <f>LEFT(A119,FIND(" ",A119)-1)</f>
@@ -13556,19 +13565,19 @@
         <v>2</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Neil','Scott',70,2,NULL);</v>
       </c>
       <c r="H119" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13585,19 +13594,19 @@
         <v>2</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Gail','Coad',70,2,NULL);</v>
       </c>
       <c r="H120" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13614,19 +13623,19 @@
         <v>2</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Rob','Thomas',71,2,NULL);</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13643,19 +13652,19 @@
         <v>2</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lisa','Verhelle',71,2,NULL);</v>
       </c>
       <c r="H122" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13672,19 +13681,19 @@
         <v>2</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Josh','Wynne',72,2,NULL);</v>
       </c>
       <c r="H123" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" si="3"/>
@@ -13701,19 +13710,19 @@
         <v>2</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Michelle','Wynne',72,2,NULL);</v>
       </c>
       <c r="H124" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" ref="B125:B136" si="6">LEFT(A125,FIND(" ",A125)-1)</f>
@@ -13737,12 +13746,12 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Lisa','Dichtel',73,2,1);</v>
       </c>
       <c r="H125" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B126" s="4" t="str">
         <f>LEFT(A126,FIND(" ",A126)-1)</f>
@@ -13759,19 +13768,19 @@
         <v>3</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Patrick','Knight ',74,3,NULL);</v>
       </c>
       <c r="H126" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13788,19 +13797,19 @@
         <v>3</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Katie','Knight ',74,3,NULL);</v>
       </c>
       <c r="H127" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B128" s="4" t="str">
         <f>LEFT(A128,FIND(" ",A128)-1)</f>
@@ -13817,19 +13826,19 @@
         <v>3</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Fredrick','Mamlqvist ',75,3,NULL);</v>
       </c>
       <c r="H128" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13846,19 +13855,19 @@
         <v>3</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Ana','Mamlqvist ',75,3,NULL);</v>
       </c>
       <c r="H129" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13875,19 +13884,19 @@
         <v>3</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Robin','Hurley',76,3,NULL);</v>
       </c>
       <c r="H130" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B131" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13904,19 +13913,19 @@
         <v>3</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G136" si="8">CONCATENATE("INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('",B131,"','",C131,"',",D131,",",E131,",",F131,");")</f>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Plus','One',76,3,NULL);</v>
       </c>
       <c r="H131" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B132" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13933,19 +13942,19 @@
         <v>3</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Michael','Kehoe ',77,3,NULL);</v>
       </c>
       <c r="H132" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B133" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13962,19 +13971,19 @@
         <v>3</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Paula','Kehoe ',77,3,NULL);</v>
       </c>
       <c r="H133" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B134" s="4" t="str">
         <f t="shared" si="6"/>
@@ -13991,19 +14000,19 @@
         <v>3</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('James','Fitch',78,3,NULL);</v>
       </c>
       <c r="H134" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B135" s="4" t="str">
         <f t="shared" si="6"/>
@@ -14020,19 +14029,19 @@
         <v>3</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="8"/>
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Nancy','Fitch',78,3,NULL);</v>
       </c>
       <c r="H135" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B136" s="4" t="str">
         <f t="shared" si="6"/>
@@ -14056,7 +14065,7 @@
         <v>INSERT INTO Guests (FirstName, LastName, GroupId, Guest_CatId, PlusOne) VALUES ('Colby','Dennis',79,1,1);</v>
       </c>
       <c r="H136" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/sql/Wedding Guest List_160808.xlsx
+++ b/sql/Wedding Guest List_160808.xlsx
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ListAddress!$A$1:$G$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ListMaster!$A$1:$P$149</definedName>
     <definedName name="City">ListAddress!$D$2:$D$1048576</definedName>
     <definedName name="Name">ListAddress!$A$2:$A$1048576</definedName>
     <definedName name="State">ListAddress!$E$2:$E$1048576</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="830">
   <si>
     <t>Family - Kim</t>
   </si>
@@ -2166,9 +2167,6 @@
     <t>Inner Envelope</t>
   </si>
   <si>
-    <t>Mr. Bradley and Mrs. Marilyn Bean</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -2190,9 +2188,6 @@
     <t>Widow</t>
   </si>
   <si>
-    <t>ma</t>
-  </si>
-  <si>
     <t>Stephan Ruka</t>
   </si>
   <si>
@@ -2524,6 +2519,15 @@
   </si>
   <si>
     <t>Jan</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Josh</t>
   </si>
 </sst>
 </file>
@@ -3713,11 +3717,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P149"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3745,13 +3750,13 @@
         <v>333</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>331</v>
@@ -3795,10 +3800,10 @@
         <v>391</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>LEFT(A2,FIND(" ",A2)-1)</f>
@@ -3816,7 +3821,7 @@
         <v>Pam Bean</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(C2="Single Woman",CONCATENATE("Ms. ",D2," ",F2),"")</f>
+        <f>IF(C2="Single Woman",CONCATENATE("Ms. ",D2," ",F2),IF(C2="Married Couple",CONCATENATE("Mr. ",D2, " ", F2, " and Mrs. ",D3," ",F2),""))</f>
         <v>Ms. Pamela Bean</v>
       </c>
       <c r="L2" t="str">
@@ -3840,7 +3845,7 @@
         <v>32065</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -3848,10 +3853,10 @@
         <v>391</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E65" si="5">LEFT(A3,FIND(" ",A3)-1)</f>
@@ -3868,8 +3873,9 @@
         <f>CONCATENATE(E3," and ",E4," ",F3)</f>
         <v>Brad and Marilyn Bean</v>
       </c>
-      <c r="J3" t="s">
-        <v>709</v>
+      <c r="J3" t="str">
+        <f>IF(C3="Single Woman",CONCATENATE("Ms. ",D3," ",F3),IF(C3="Married Couple",CONCATENATE("Mr. ",D3, " and Mrs. ",D4," ",F3),""))</f>
+        <v>Mr. Bradley and Mrs. Marilyn Bean</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
@@ -3892,7 +3898,7 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -3900,10 +3906,10 @@
         <v>391</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="5"/>
@@ -3920,8 +3926,9 @@
         <f>CONCATENATE(E3," and ",E4," ",F3)</f>
         <v>Brad and Marilyn Bean</v>
       </c>
-      <c r="J4" t="s">
-        <v>709</v>
+      <c r="J4" t="str">
+        <f>J3</f>
+        <v>Mr. Bradley and Mrs. Marilyn Bean</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -3944,7 +3951,7 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -3952,10 +3959,10 @@
         <v>391</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>LEFT(A5,FIND(" ",A5)-1)</f>
@@ -3972,6 +3979,10 @@
         <f>CONCATENATE(E5," and ",E6," ",F5)</f>
         <v>Robert and Jennifer Wood</v>
       </c>
+      <c r="J5" t="str">
+        <f>IF(C5="Single Woman",CONCATENATE("Ms. ",D5," ",F5),IF(C5="Married Couple",CONCATENATE("Mr. ",D5, " and Mrs. ",D6," ",F5),""))</f>
+        <v>Mr. Robert and Mrs. Jennifer Wood</v>
+      </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
         <v>5116 Potomac St</v>
@@ -3993,7 +4004,7 @@
         <v>29405</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -4001,10 +4012,10 @@
         <v>391</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4021,6 +4032,10 @@
         <f>CONCATENATE(E5," and ",E6," ",F5)</f>
         <v>Robert and Jennifer Wood</v>
       </c>
+      <c r="J6" t="str">
+        <f>J5</f>
+        <v>Mr. Robert and Mrs. Jennifer Wood</v>
+      </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
         <v>5116 Potomac St</v>
@@ -4050,10 +4065,10 @@
         <v>391</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4073,6 +4088,14 @@
         <f>A7</f>
         <v>Dean West</v>
       </c>
+      <c r="J7" t="str">
+        <f>CONCATENATE("Mr. ",D7," ",F7)</f>
+        <v>Mr. Dean West</v>
+      </c>
+      <c r="K7" t="str">
+        <f>CONCATENATE("Mr. ",D7," ",F7," and Guest")</f>
+        <v>Mr. Dean West and Guest</v>
+      </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
         <v>7124 Prestwick Cir N</v>
@@ -4094,7 +4117,7 @@
         <v>32244</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -4102,10 +4125,10 @@
         <v>391</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>LEFT(A8,FIND(" ",A8)-1)</f>
@@ -4122,6 +4145,10 @@
         <f>CONCATENATE(E8," and ",E9," ",F8)</f>
         <v>Dan and Robin Peck</v>
       </c>
+      <c r="J8" t="str">
+        <f>IF(C8="Single Woman",CONCATENATE("Ms. ",D8," ",F8),IF(C8="Married Couple",CONCATENATE("Mr. ",D8, " and Mrs. ",D9," ",F8),""))</f>
+        <v>Mr. Daniel and Mrs. Robin Peck</v>
+      </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
         <v>2337A First Ave</v>
@@ -4143,7 +4170,7 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>178</v>
       </c>
@@ -4151,10 +4178,10 @@
         <v>391</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4171,6 +4198,10 @@
         <f>CONCATENATE(E8," and ",E9," ",F8)</f>
         <v>Dan and Robin Peck</v>
       </c>
+      <c r="J9" t="str">
+        <f>J8</f>
+        <v>Mr. Daniel and Mrs. Robin Peck</v>
+      </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
         <v>2337A First Ave</v>
@@ -4192,7 +4223,7 @@
         <v>32034</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -4200,10 +4231,10 @@
         <v>391</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>LEFT(A10,FIND(" ",A10)-1)</f>
@@ -4220,6 +4251,10 @@
         <f>CONCATENATE(E10," and ",E11," ",F10)</f>
         <v>Joe and Marilyn Jeffers</v>
       </c>
+      <c r="J10" t="str">
+        <f>IF(C10="Single Woman",CONCATENATE("Ms. ",D10," ",F10),IF(C10="Married Couple",CONCATENATE("Mr. ",D10, " and Mrs. ",D11," ",F10),""))</f>
+        <v>Mr. Joseph and Mrs. Marilyn Jeffers</v>
+      </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
         <v>1255 Evergreen St</v>
@@ -4241,7 +4276,7 @@
         <v>92106</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -4249,10 +4284,10 @@
         <v>391</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4269,6 +4304,10 @@
         <f>CONCATENATE(E10," and ",E11," ",F10)</f>
         <v>Joe and Marilyn Jeffers</v>
       </c>
+      <c r="J11" t="str">
+        <f>J10</f>
+        <v>Mr. Joseph and Mrs. Marilyn Jeffers</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
         <v>1255 Evergreen St</v>
@@ -4290,7 +4329,7 @@
         <v>92106</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -4298,10 +4337,10 @@
         <v>391</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>LEFT(A12,FIND(" ",A12)-1)</f>
@@ -4318,6 +4357,10 @@
         <f>CONCATENATE(E12," and ",E13," ",F12)</f>
         <v>Richard and Alicia Disney</v>
       </c>
+      <c r="J12" t="str">
+        <f>IF(C12="Single Woman",CONCATENATE("Ms. ",D12," ",F12),IF(C12="Married Couple",CONCATENATE("Mr. ",D12, " and Mrs. ",D13," ",F12),""))</f>
+        <v>Mr. Richard and Mrs. Alicia Disney</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>5331 Shorecrest Dr</v>
@@ -4339,7 +4382,7 @@
         <v>32210</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -4347,10 +4390,10 @@
         <v>391</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>LEFT(A13,FIND(" ",A13)-1)</f>
@@ -4367,6 +4410,10 @@
         <f>CONCATENATE(E12," and ",E13," ",F12)</f>
         <v>Richard and Alicia Disney</v>
       </c>
+      <c r="J13" t="str">
+        <f>J12</f>
+        <v>Mr. Richard and Mrs. Alicia Disney</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>5331 Shorecrest Dr</v>
@@ -4388,7 +4435,7 @@
         <v>32210</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>635</v>
       </c>
@@ -4396,13 +4443,13 @@
         <v>391</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>RIGHT(A14,LEN(A14)-FIND(" ",A14))</f>
@@ -4415,6 +4462,10 @@
         <f>CONCATENATE(E14," and ",E15," ",F14)</f>
         <v>Matt and Danielle Burke</v>
       </c>
+      <c r="J14" t="str">
+        <f>IF(C14="Single Woman",CONCATENATE("Ms. ",D14," ",F14),IF(C14="Married Couple",CONCATENATE("Mr. ",D14, " and Mrs. ",D15," ",F14),""))</f>
+        <v>Mr. Matthew and Mrs. Danielle Burke</v>
+      </c>
       <c r="L14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4436,7 +4487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -4444,10 +4495,10 @@
         <v>391</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4464,6 +4515,10 @@
         <f>CONCATENATE(E14," and ",E15," ",F14)</f>
         <v>Matt and Danielle Burke</v>
       </c>
+      <c r="J15" t="str">
+        <f>J14</f>
+        <v>Mr. Matthew and Mrs. Danielle Burke</v>
+      </c>
       <c r="L15" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4485,7 +4540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -4493,10 +4548,10 @@
         <v>391</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4513,6 +4568,10 @@
         <f>CONCATENATE(E16," and ",E17," ",F16)</f>
         <v>Adam and Vica Bourque</v>
       </c>
+      <c r="J16" t="str">
+        <f>IF(C16="Single Woman",CONCATENATE("Ms. ",D16," ",F16),IF(C16="Married Couple",CONCATENATE("Mr. ",D16, " and Mrs. ",D17," ",F16),""))</f>
+        <v>Mr. Adam and Mrs. Vica Bourque</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>218 E Parkwood Rd</v>
@@ -4534,7 +4593,7 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -4542,10 +4601,10 @@
         <v>391</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4562,6 +4621,10 @@
         <f>CONCATENATE(E16," and ",E17," ",F16)</f>
         <v>Adam and Vica Bourque</v>
       </c>
+      <c r="J17" t="str">
+        <f>J16</f>
+        <v>Mr. Adam and Mrs. Vica Bourque</v>
+      </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>218 E Parkwood Rd</v>
@@ -4583,7 +4646,7 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>185</v>
       </c>
@@ -4591,13 +4654,13 @@
         <v>391</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>RIGHT(A18,LEN(A18)-FIND(" ",A18))</f>
@@ -4610,6 +4673,10 @@
         <f>CONCATENATE(E18," and ",E19," ",F18)</f>
         <v>Drew and Ashley Fortenberry</v>
       </c>
+      <c r="J18" t="str">
+        <f>IF(C18="Single Woman",CONCATENATE("Ms. ",D18," ",F18),IF(C18="Married Couple",CONCATENATE("Mr. ",D18, " and Mrs. ",D19," ",F18),""))</f>
+        <v>Mr. Andrew and Mrs. Ashley Fortenberry</v>
+      </c>
       <c r="L18" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4631,7 +4698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -4639,10 +4706,10 @@
         <v>391</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4659,6 +4726,10 @@
         <f>CONCATENATE(E18," and ",E19," ",F18)</f>
         <v>Drew and Ashley Fortenberry</v>
       </c>
+      <c r="J19" t="str">
+        <f>J18</f>
+        <v>Mr. Andrew and Mrs. Ashley Fortenberry</v>
+      </c>
       <c r="L19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4680,7 +4751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -4688,7 +4759,7 @@
         <v>392</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>93</v>
@@ -4708,6 +4779,10 @@
         <f>CONCATENATE(E20," and ",E21," ",F20)</f>
         <v>Steve and Deanna Gutzman</v>
       </c>
+      <c r="J20" t="str">
+        <f>IF(C20="Single Woman",CONCATENATE("Ms. ",D20," ",F20),IF(C20="Married Couple",CONCATENATE("Mr. ",D20, " and Mrs. ",D21," ",F20),""))</f>
+        <v>Mr. Steve and Mrs. Deanna Gutzman</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v>832 Towne St</v>
@@ -4729,7 +4804,7 @@
         <v>95476</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -4737,10 +4812,10 @@
         <v>392</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4757,6 +4832,10 @@
         <f>CONCATENATE(E20," and ",E21," ",F20)</f>
         <v>Steve and Deanna Gutzman</v>
       </c>
+      <c r="J21" t="str">
+        <f>J20</f>
+        <v>Mr. Steve and Mrs. Deanna Gutzman</v>
+      </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v>832 Towne St</v>
@@ -4778,7 +4857,7 @@
         <v>95476</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
@@ -4786,10 +4865,10 @@
         <v>391</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4806,6 +4885,10 @@
         <f>CONCATENATE(E22," and ",E23," ",F22)</f>
         <v>Mike and Lisa Reed</v>
       </c>
+      <c r="J22" t="str">
+        <f>IF(C22="Single Woman",CONCATENATE("Ms. ",D22," ",F22),IF(C22="Married Couple",CONCATENATE("Mr. ",D22, " and Mrs. ",D23," ",F22),""))</f>
+        <v>Mr. Michael and Mrs. Lisa Reed</v>
+      </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v>2490 Creek Hill Rd</v>
@@ -4827,7 +4910,7 @@
         <v>17601</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>114</v>
       </c>
@@ -4835,10 +4918,10 @@
         <v>391</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4855,6 +4938,10 @@
         <f>CONCATENATE(E22," and ",E23," ",F22)</f>
         <v>Mike and Lisa Reed</v>
       </c>
+      <c r="J23" t="str">
+        <f>J22</f>
+        <v>Mr. Michael and Mrs. Lisa Reed</v>
+      </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v>2490 Creek Hill Rd</v>
@@ -4876,7 +4963,7 @@
         <v>17601</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -4884,10 +4971,10 @@
         <v>391</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="5"/>
@@ -4925,7 +5012,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>179</v>
       </c>
@@ -4933,13 +5020,13 @@
         <v>391</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4952,6 +5039,10 @@
         <f>CONCATENATE(A25," and ",A26)</f>
         <v>Patrick Vasnelis and Tammy Dingler</v>
       </c>
+      <c r="J25" t="str">
+        <f>CONCATENATE("Mr. ",D25," ",F25," and Ms. ",D26," ",F26)</f>
+        <v>Mr. Patrick Vasnelis and Ms. Tammy Dingler</v>
+      </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v>4969 Cabin Run Rd</v>
@@ -4973,7 +5064,7 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4981,10 +5072,10 @@
         <v>391</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5001,6 +5092,10 @@
         <f>CONCATENATE(A25," and ",A26)</f>
         <v>Patrick Vasnelis and Tammy Dingler</v>
       </c>
+      <c r="J26" t="str">
+        <f>J25</f>
+        <v>Mr. Patrick Vasnelis and Ms. Tammy Dingler</v>
+      </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v>4969 Cabin Run Rd</v>
@@ -5022,7 +5117,7 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -5030,13 +5125,13 @@
         <v>391</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5049,6 +5144,10 @@
         <f>CONCATENATE(A27," and ",A28)</f>
         <v>Michael Essex and Susan Bower</v>
       </c>
+      <c r="J27" t="str">
+        <f>CONCATENATE("Mr. ",D27," ",F27," and Ms. ",D28," ",F28)</f>
+        <v>Mr. Michael Essex and Ms. Susan Bower</v>
+      </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v>8156 Glenbrooke Ct</v>
@@ -5070,7 +5169,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -5078,10 +5177,10 @@
         <v>391</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5098,6 +5197,10 @@
         <f>CONCATENATE(A27," and ",A28)</f>
         <v>Michael Essex and Susan Bower</v>
       </c>
+      <c r="J28" t="str">
+        <f>J27</f>
+        <v>Mr. Michael Essex and Ms. Susan Bower</v>
+      </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v>8156 Glenbrooke Ct</v>
@@ -5119,7 +5222,7 @@
         <v>34243</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -5127,10 +5230,10 @@
         <v>391</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5147,6 +5250,10 @@
         <f>CONCATENATE(E29," and ",E30," ",F29)</f>
         <v>George and Dee Vasnelis</v>
       </c>
+      <c r="J29" t="str">
+        <f>IF(C29="Single Woman",CONCATENATE("Ms. ",D29," ",F29),IF(C29="Married Couple",CONCATENATE("Mr. ",D29, " and Mrs. ",D30," ",F29),""))</f>
+        <v>Mr. George and Mrs. Diana Vasnelis</v>
+      </c>
       <c r="L29" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -5168,7 +5275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>335</v>
       </c>
@@ -5176,13 +5283,13 @@
         <v>391</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5195,6 +5302,10 @@
         <f>CONCATENATE(E29," and ",E30," ",F29)</f>
         <v>George and Dee Vasnelis</v>
       </c>
+      <c r="J30" t="str">
+        <f>J29</f>
+        <v>Mr. George and Mrs. Diana Vasnelis</v>
+      </c>
       <c r="L30" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -5216,7 +5327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>186</v>
       </c>
@@ -5224,7 +5335,7 @@
         <v>391</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>LEFT(A31,FIND(" ",A31)-1)</f>
@@ -5262,7 +5373,7 @@
         <v>33709</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>212</v>
       </c>
@@ -5270,7 +5381,7 @@
         <v>391</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5308,7 +5419,7 @@
         <v>33709</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>201</v>
       </c>
@@ -5316,10 +5427,10 @@
         <v>391</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5336,6 +5447,10 @@
         <f>CONCATENATE(E33," and ",E34," ",F33)</f>
         <v>Bill and Laurie Weldon</v>
       </c>
+      <c r="J33" t="str">
+        <f>IF(C33="Single Woman",CONCATENATE("Ms. ",D33," ",F33),IF(C33="Married Couple",CONCATENATE("Mr. ",D33, " and Mrs. ",D34," ",F33),""))</f>
+        <v>Mr. William and Mrs. Laurie Weldon</v>
+      </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
         <v>300 Bellis Rd</v>
@@ -5357,7 +5472,7 @@
         <v>08804</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>187</v>
       </c>
@@ -5365,10 +5480,10 @@
         <v>391</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5385,6 +5500,10 @@
         <f>CONCATENATE(E33," and ",E34," ",F33)</f>
         <v>Bill and Laurie Weldon</v>
       </c>
+      <c r="J34" t="str">
+        <f>J33</f>
+        <v>Mr. William and Mrs. Laurie Weldon</v>
+      </c>
       <c r="L34" t="str">
         <f t="shared" ref="L34:L64" si="7">IF(INDEX(Street,MATCH($I34,Name,0))=0,"",(INDEX(Street,MATCH($I34,Name,0))))</f>
         <v>300 Bellis Rd</v>
@@ -5406,7 +5525,7 @@
         <v>08804</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
@@ -5414,10 +5533,10 @@
         <v>391</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F35" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5451,7 +5570,7 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -5495,7 +5614,7 @@
         <v>18947</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
@@ -5503,10 +5622,10 @@
         <v>391</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5523,6 +5642,10 @@
         <f>CONCATENATE(A37," and ",A38)</f>
         <v>Ryan Vasnelis and Dana Stone</v>
       </c>
+      <c r="J37" t="str">
+        <f>CONCATENATE("Mr. ",D37," ",F37," and Ms. ",D38," ",F38)</f>
+        <v>Mr. Ryan Vasnelis and Ms. Dana Stone</v>
+      </c>
       <c r="L37" t="str">
         <f t="shared" si="7"/>
         <v>45 Hunter Rd</v>
@@ -5544,7 +5667,7 @@
         <v>07035</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -5552,10 +5675,10 @@
         <v>391</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5572,6 +5695,10 @@
         <f>CONCATENATE(A37," and ",A38)</f>
         <v>Ryan Vasnelis and Dana Stone</v>
       </c>
+      <c r="J38" t="str">
+        <f>J37</f>
+        <v>Mr. Ryan Vasnelis and Ms. Dana Stone</v>
+      </c>
       <c r="L38" t="str">
         <f t="shared" si="7"/>
         <v>45 Hunter Rd</v>
@@ -5593,7 +5720,7 @@
         <v>07035</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>180</v>
       </c>
@@ -5601,9 +5728,11 @@
         <v>391</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D39" s="26"/>
+        <v>710</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>827</v>
+      </c>
       <c r="E39" s="4" t="str">
         <f>LEFT(A39,FIND(" ",A39)-1)</f>
         <v>Steve</v>
@@ -5618,6 +5747,10 @@
       <c r="I39" t="s">
         <v>571</v>
       </c>
+      <c r="J39" t="str">
+        <f>IF(C39="Single Woman",CONCATENATE("Ms. ",D39," ",F39),IF(C39="Married Couple",CONCATENATE("Mr. ",D39, " and Mrs. ",D40," ",F39),""))</f>
+        <v>Mr. Steven and Mrs. Lauren Mena</v>
+      </c>
       <c r="L39" t="str">
         <f t="shared" si="7"/>
         <v>123 Leigh St</v>
@@ -5639,18 +5772,18 @@
         <v>08809</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5666,6 +5799,10 @@
       <c r="I40" t="s">
         <v>571</v>
       </c>
+      <c r="J40" t="str">
+        <f>J39</f>
+        <v>Mr. Steven and Mrs. Lauren Mena</v>
+      </c>
       <c r="L40" t="str">
         <f t="shared" si="7"/>
         <v>123 Leigh St</v>
@@ -5687,7 +5824,7 @@
         <v>08809</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>97</v>
       </c>
@@ -5695,10 +5832,10 @@
         <v>391</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5715,6 +5852,10 @@
         <f>CONCATENATE(A41," and ",A42)</f>
         <v>Brian Weldon and Lauren Jewski</v>
       </c>
+      <c r="J41" t="str">
+        <f>CONCATENATE("Mr. ",D41," ",F41," and Ms. ",D42," ",F42)</f>
+        <v>Mr. Brian Weldon and Ms. Lauren Jewski</v>
+      </c>
       <c r="L41" t="str">
         <f t="shared" si="7"/>
         <v>626 Washington St</v>
@@ -5736,7 +5877,7 @@
         <v>07030</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>102</v>
       </c>
@@ -5744,10 +5885,10 @@
         <v>391</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5764,6 +5905,10 @@
         <f>CONCATENATE(A41," and ",A42)</f>
         <v>Brian Weldon and Lauren Jewski</v>
       </c>
+      <c r="J42" t="str">
+        <f>J41</f>
+        <v>Mr. Brian Weldon and Ms. Lauren Jewski</v>
+      </c>
       <c r="L42" t="str">
         <f t="shared" si="7"/>
         <v>626 Washington St</v>
@@ -5785,7 +5930,7 @@
         <v>07030</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
@@ -5793,10 +5938,10 @@
         <v>391</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5813,6 +5958,10 @@
         <f>CONCATENATE(E43," and ",E44," ",F43)</f>
         <v>Andrew and Kristen Weldon</v>
       </c>
+      <c r="J43" t="str">
+        <f>IF(C43="Single Woman",CONCATENATE("Ms. ",D43," ",F43),IF(C43="Married Couple",CONCATENATE("Mr. ",D43, " and Mrs. ",D44," ",F43),""))</f>
+        <v>Mr. Andrew and Mrs. Kristen Weldon</v>
+      </c>
       <c r="L43" t="str">
         <f t="shared" si="7"/>
         <v>1701 Williams Ct</v>
@@ -5834,7 +5983,7 @@
         <v>31904</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
@@ -5842,10 +5991,10 @@
         <v>391</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5862,6 +6011,10 @@
         <f>CONCATENATE(E43," and ",E44," ",F43)</f>
         <v>Andrew and Kristen Weldon</v>
       </c>
+      <c r="J44" t="str">
+        <f>J43</f>
+        <v>Mr. Andrew and Mrs. Kristen Weldon</v>
+      </c>
       <c r="L44" t="str">
         <f t="shared" si="7"/>
         <v>1701 Williams Ct</v>
@@ -5891,13 +6044,13 @@
         <v>391</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5913,6 +6066,14 @@
         <f t="shared" ref="I45:I50" si="12">A45</f>
         <v>Daniel Weldon</v>
       </c>
+      <c r="J45" t="str">
+        <f>CONCATENATE("Mr. ",D45," ",F45)</f>
+        <v>Mr. Daniel Weldon</v>
+      </c>
+      <c r="K45" t="str">
+        <f>CONCATENATE("Mr. ",D45," ",F45," and Guest")</f>
+        <v>Mr. Daniel Weldon and Guest</v>
+      </c>
       <c r="L45" t="str">
         <f t="shared" si="7"/>
         <v>325 Greens Edge Dr</v>
@@ -5942,7 +6103,7 @@
         <v>391</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="5"/>
@@ -5988,7 +6149,7 @@
         <v>391</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6034,7 +6195,7 @@
         <v>391</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6080,7 +6241,7 @@
         <v>391</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6126,10 +6287,10 @@
         <v>392</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6167,7 +6328,7 @@
         <v>32222</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>588</v>
       </c>
@@ -6175,7 +6336,7 @@
         <v>392</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E51" s="4" t="str">
         <f>LEFT(A51,FIND(" ",A51)-1)</f>
@@ -6191,6 +6352,10 @@
       <c r="I51" t="s">
         <v>573</v>
       </c>
+      <c r="J51" t="str">
+        <f>IF(C51="Single Woman",CONCATENATE("Ms. ",D51," ",F51),IF(C51="Married Couple",CONCATENATE("Mr. ",D51, " and Mrs. ",D52," ",F51),""))</f>
+        <v>Mr.  and Mrs.  Banks</v>
+      </c>
       <c r="L51" t="str">
         <f t="shared" si="7"/>
         <v>10449 Innisbrook Drive</v>
@@ -6212,7 +6377,7 @@
         <v>32222</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
@@ -6220,7 +6385,7 @@
         <v>392</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E52" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6236,6 +6401,10 @@
       <c r="I52" t="s">
         <v>573</v>
       </c>
+      <c r="J52" t="str">
+        <f>J51</f>
+        <v>Mr.  and Mrs.  Banks</v>
+      </c>
       <c r="L52" t="str">
         <f t="shared" si="7"/>
         <v>10449 Innisbrook Drive</v>
@@ -6265,7 +6434,7 @@
         <v>392</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E53" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6303,7 +6472,7 @@
         <v>32068</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>385</v>
       </c>
@@ -6311,10 +6480,10 @@
         <v>392</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E54" s="4" t="str">
         <f>LEFT(A54,FIND(" ",A54)-1)</f>
@@ -6331,6 +6500,10 @@
         <f>CONCATENATE(E54," and ",E55," ",F54)</f>
         <v>Greg and Marsha Follensbee</v>
       </c>
+      <c r="J54" t="str">
+        <f>IF(C54="Single Woman",CONCATENATE("Ms. ",D54," ",F54),IF(C54="Married Couple",CONCATENATE("Mr. ",D54, " and Mrs. ",D55," ",F54),""))</f>
+        <v>Mr. Gregory and Mrs. Marsha Follensbee</v>
+      </c>
       <c r="L54" t="str">
         <f t="shared" si="7"/>
         <v>4528 Grove Park Dr</v>
@@ -6352,7 +6525,7 @@
         <v>32311</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>151</v>
       </c>
@@ -6360,10 +6533,10 @@
         <v>392</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E55" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6380,6 +6553,10 @@
         <f>CONCATENATE(E54," and ",E55," ",F54)</f>
         <v>Greg and Marsha Follensbee</v>
       </c>
+      <c r="J55" t="str">
+        <f>J54</f>
+        <v>Mr. Gregory and Mrs. Marsha Follensbee</v>
+      </c>
       <c r="L55" t="str">
         <f t="shared" si="7"/>
         <v>4528 Grove Park Dr</v>
@@ -6409,10 +6586,10 @@
         <v>392</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6458,10 +6635,10 @@
         <v>392</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6499,7 +6676,7 @@
         <v>33563</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
@@ -6507,10 +6684,10 @@
         <v>392</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E58" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6527,6 +6704,10 @@
         <f>CONCATENATE(E58," and ",E59," ",F58)</f>
         <v>Bill and Cheryl Blalock</v>
       </c>
+      <c r="J58" t="str">
+        <f>IF(C58="Single Woman",CONCATENATE("Ms. ",D58," ",F58),IF(C58="Married Couple",CONCATENATE("Mr. ",D58, " and Mrs. ",D59," ",F58),""))</f>
+        <v>Mr. William and Mrs. Cheryl Blalock</v>
+      </c>
       <c r="L58" t="str">
         <f t="shared" si="7"/>
         <v>37 Sugar Mill Dr</v>
@@ -6548,7 +6729,7 @@
         <v>29909</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>54</v>
       </c>
@@ -6556,10 +6737,10 @@
         <v>392</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E59" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6576,6 +6757,10 @@
         <f>CONCATENATE(E58," and ",E59," ",F58)</f>
         <v>Bill and Cheryl Blalock</v>
       </c>
+      <c r="J59" t="str">
+        <f>J58</f>
+        <v>Mr. William and Mrs. Cheryl Blalock</v>
+      </c>
       <c r="L59" t="str">
         <f t="shared" si="7"/>
         <v>37 Sugar Mill Dr</v>
@@ -6597,7 +6782,7 @@
         <v>29909</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>623</v>
       </c>
@@ -6605,10 +6790,10 @@
         <v>392</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E60" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6625,6 +6810,10 @@
         <f>CONCATENATE(E60," and ",E61," ",F60)</f>
         <v>Nick and Alice Karetas</v>
       </c>
+      <c r="J60" t="str">
+        <f>IF(C60="Single Woman",CONCATENATE("Ms. ",D60," ",F60),IF(C60="Married Couple",CONCATENATE("Mr. ",D60, " and Mrs. ",D61," ",F60),""))</f>
+        <v>Mr. Nicholas and Mrs. Alice Karetas</v>
+      </c>
       <c r="L60" t="str">
         <f t="shared" si="7"/>
         <v>2103 Buckman Dr</v>
@@ -6646,7 +6835,7 @@
         <v>19610</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>624</v>
       </c>
@@ -6654,10 +6843,10 @@
         <v>392</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E61" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6674,6 +6863,10 @@
         <f>CONCATENATE(E60," and ",E61," ",F60)</f>
         <v>Nick and Alice Karetas</v>
       </c>
+      <c r="J61" t="str">
+        <f>J60</f>
+        <v>Mr. Nicholas and Mrs. Alice Karetas</v>
+      </c>
       <c r="L61" t="str">
         <f t="shared" si="7"/>
         <v>2103 Buckman Dr</v>
@@ -6695,7 +6888,7 @@
         <v>19610</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
@@ -6703,10 +6896,10 @@
         <v>392</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E62" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6723,6 +6916,10 @@
         <f>CONCATENATE(E62," and ",E63," ",F62)</f>
         <v>George and Kathy Henshaw</v>
       </c>
+      <c r="J62" t="str">
+        <f>IF(C62="Single Woman",CONCATENATE("Ms. ",D62," ",F62),IF(C62="Married Couple",CONCATENATE("Mr. ",D62, " and Mrs. ",D63," ",F62),""))</f>
+        <v>Mr. George and Mrs. Kathy Henshaw</v>
+      </c>
       <c r="L62" t="str">
         <f t="shared" si="7"/>
         <v>3310 Golden Eagle Dr E</v>
@@ -6744,7 +6941,7 @@
         <v>32312</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>74</v>
       </c>
@@ -6752,10 +6949,10 @@
         <v>392</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6772,6 +6969,10 @@
         <f>CONCATENATE(E62," and ",E63," ",F62)</f>
         <v>George and Kathy Henshaw</v>
       </c>
+      <c r="J63" t="str">
+        <f>J62</f>
+        <v>Mr. George and Mrs. Kathy Henshaw</v>
+      </c>
       <c r="L63" t="str">
         <f t="shared" si="7"/>
         <v>3310 Golden Eagle Dr E</v>
@@ -6793,7 +6994,7 @@
         <v>32312</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
@@ -6801,10 +7002,10 @@
         <v>392</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E64" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6850,10 +7051,10 @@
         <v>392</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E65" s="4" t="str">
         <f t="shared" si="5"/>
@@ -6890,7 +7091,7 @@
         <v>32065</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -6898,7 +7099,7 @@
         <v>392</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="4" t="str">
@@ -6936,7 +7137,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>16</v>
       </c>
@@ -6944,7 +7145,7 @@
         <v>392</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="4" t="str">
@@ -6982,7 +7183,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>27</v>
       </c>
@@ -6990,9 +7191,11 @@
         <v>392</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D68" s="26"/>
+        <v>710</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>828</v>
+      </c>
       <c r="E68" s="4" t="str">
         <f>LEFT(A68,FIND(" ",A68)-1)</f>
         <v>John</v>
@@ -7008,6 +7211,10 @@
         <f>CONCATENATE(E68," and ",E69," ",F68)</f>
         <v>John and Madeline Kalinich</v>
       </c>
+      <c r="J68" t="str">
+        <f>IF(C68="Single Woman",CONCATENATE("Ms. ",D68," ",F68),IF(C68="Married Couple",CONCATENATE("Mr. ",D68, " and Mrs. ",D69," ",F68),""))</f>
+        <v>Mr. John and Mrs. Madeline Kalinich</v>
+      </c>
       <c r="L68" t="str">
         <f t="shared" si="13"/>
         <v>11 Monfort Ln</v>
@@ -7029,7 +7236,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -7037,10 +7244,10 @@
         <v>392</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7057,6 +7264,10 @@
         <f>CONCATENATE(E68," and ",E69," ",F68)</f>
         <v>John and Madeline Kalinich</v>
       </c>
+      <c r="J69" t="str">
+        <f>J68</f>
+        <v>Mr. John and Mrs. Madeline Kalinich</v>
+      </c>
       <c r="L69" t="str">
         <f t="shared" si="13"/>
         <v>11 Monfort Ln</v>
@@ -7078,7 +7289,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>31</v>
       </c>
@@ -7086,7 +7297,7 @@
         <v>392</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E70" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7127,7 +7338,7 @@
         <v>08889</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>11</v>
       </c>
@@ -7135,10 +7346,10 @@
         <v>393</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E71" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7155,6 +7366,10 @@
         <f>CONCATENATE(E71," and ",E72," ",F71)</f>
         <v>Shannon and Sarah Stowers</v>
       </c>
+      <c r="J71" t="str">
+        <f>IF(C71="Single Woman",CONCATENATE("Ms. ",D71," ",F71),IF(C71="Married Couple",CONCATENATE("Mr. ",D71, " and Mrs. ",D72," ",F71),""))</f>
+        <v>Mr. Shannon and Mrs. Sarah Stowers</v>
+      </c>
       <c r="L71" t="str">
         <f t="shared" si="13"/>
         <v>4410 Lavender Drive</v>
@@ -7176,7 +7391,7 @@
         <v>34685</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>17</v>
       </c>
@@ -7184,10 +7399,10 @@
         <v>393</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7204,6 +7419,10 @@
         <f>CONCATENATE(E71," and ",E72," ",F71)</f>
         <v>Shannon and Sarah Stowers</v>
       </c>
+      <c r="J72" t="str">
+        <f>J71</f>
+        <v>Mr. Shannon and Mrs. Sarah Stowers</v>
+      </c>
       <c r="L72" t="str">
         <f t="shared" si="13"/>
         <v>4410 Lavender Drive</v>
@@ -7233,13 +7452,13 @@
         <v>393</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F73" s="4" t="str">
         <f t="shared" si="19"/>
@@ -7255,6 +7474,14 @@
         <f>A73</f>
         <v>Michael Whealen</v>
       </c>
+      <c r="J73" t="str">
+        <f>CONCATENATE("Mr. ",D73," ",F73)</f>
+        <v>Mr. Michael Whealen</v>
+      </c>
+      <c r="K73" t="str">
+        <f>CONCATENATE("Mr. ",D73," ",F73," and Guest")</f>
+        <v>Mr. Michael Whealen and Guest</v>
+      </c>
       <c r="L73" t="str">
         <f t="shared" si="13"/>
         <v>12017 Tuscany Bay</v>
@@ -7276,7 +7503,7 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>32</v>
       </c>
@@ -7284,10 +7511,10 @@
         <v>393</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7305,6 +7532,10 @@
         <f>A74</f>
         <v>Mary Hsu</v>
       </c>
+      <c r="J74" t="str">
+        <f>CONCATENATE("Ms. ",D74," ",F74," and Mr. ",D75," ",F75)</f>
+        <v>Ms. Mary Hsu and Mr. Thomas Kutzman</v>
+      </c>
       <c r="L74" t="str">
         <f t="shared" si="13"/>
         <v>8 Spruce Street</v>
@@ -7326,7 +7557,7 @@
         <v>10038</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>634</v>
       </c>
@@ -7334,13 +7565,13 @@
         <v>393</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F75" s="4" t="str">
         <f t="shared" si="19"/>
@@ -7354,6 +7585,10 @@
         <f>A75</f>
         <v>Thomas Kutzman</v>
       </c>
+      <c r="J75" t="str">
+        <f>J74</f>
+        <v>Ms. Mary Hsu and Mr. Thomas Kutzman</v>
+      </c>
       <c r="L75" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -7383,10 +7618,10 @@
         <v>393</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7406,6 +7641,14 @@
         <f>A76</f>
         <v>Christina Lendemann</v>
       </c>
+      <c r="J76" t="str">
+        <f>CONCATENATE("Ms. ",D76," ",F76)</f>
+        <v>Ms. Christina Lendemann</v>
+      </c>
+      <c r="K76" t="str">
+        <f>CONCATENATE("Ms. ",D76," ",F76," and Guest")</f>
+        <v>Ms. Christina Lendemann and Guest</v>
+      </c>
       <c r="L76" t="str">
         <f t="shared" si="13"/>
         <v>5349 W Kennedy Blvd</v>
@@ -7427,7 +7670,7 @@
         <v>33609</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>376</v>
       </c>
@@ -7435,10 +7678,10 @@
         <v>393</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E77" s="4" t="str">
         <f>LEFT(A77,FIND(" ",A77)-1)</f>
@@ -7455,6 +7698,10 @@
         <f>CONCATENATE(E77," and ",E78," ",F77)</f>
         <v>Ben and Keri Dessing</v>
       </c>
+      <c r="J77" t="str">
+        <f>IF(C77="Single Woman",CONCATENATE("Ms. ",D77," ",F77),IF(C77="Married Couple",CONCATENATE("Mr. ",D77, " and Mrs. ",D78," ",F77),""))</f>
+        <v>Mr. Benjamin and Mrs. Keri Dessing</v>
+      </c>
       <c r="L77" t="str">
         <f t="shared" si="13"/>
         <v>15124 Willowdale Rd</v>
@@ -7476,7 +7723,7 @@
         <v>33625</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>377</v>
       </c>
@@ -7484,10 +7731,10 @@
         <v>393</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7504,6 +7751,10 @@
         <f>CONCATENATE(E77," and ",E78," ",F77)</f>
         <v>Ben and Keri Dessing</v>
       </c>
+      <c r="J78" t="str">
+        <f>J77</f>
+        <v>Mr. Benjamin and Mrs. Keri Dessing</v>
+      </c>
       <c r="L78" t="str">
         <f t="shared" si="13"/>
         <v>15124 Willowdale Rd</v>
@@ -7525,7 +7776,7 @@
         <v>33625</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>133</v>
       </c>
@@ -7533,10 +7784,10 @@
         <v>393</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7553,6 +7804,10 @@
         <f>CONCATENATE(E79," and ",E80," ",F79)</f>
         <v>Nick and Ashley Perez</v>
       </c>
+      <c r="J79" t="str">
+        <f>IF(C79="Single Woman",CONCATENATE("Ms. ",D79," ",F79),IF(C79="Married Couple",CONCATENATE("Mr. ",D79, " and Mrs. ",D80," ",F79),""))</f>
+        <v>Mr. Nicholas and Mrs. Ashley Perez</v>
+      </c>
       <c r="L79" t="str">
         <f t="shared" si="13"/>
         <v>14199 Paverstone Terrace</v>
@@ -7574,7 +7829,7 @@
         <v>33446</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>136</v>
       </c>
@@ -7582,10 +7837,10 @@
         <v>393</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7602,6 +7857,10 @@
         <f>CONCATENATE(E79," and ",E80," ",F79)</f>
         <v>Nick and Ashley Perez</v>
       </c>
+      <c r="J80" t="str">
+        <f>J79</f>
+        <v>Mr. Nicholas and Mrs. Ashley Perez</v>
+      </c>
       <c r="L80" t="str">
         <f t="shared" si="13"/>
         <v>14199 Paverstone Terrace</v>
@@ -7623,7 +7882,7 @@
         <v>33446</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>137</v>
       </c>
@@ -7631,10 +7890,10 @@
         <v>393</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7650,6 +7909,10 @@
       <c r="I81" t="s">
         <v>282</v>
       </c>
+      <c r="J81" t="str">
+        <f>IF(C81="Single Woman",CONCATENATE("Ms. ",D81," ",F81),IF(C81="Married Couple",CONCATENATE("Mr. ",D81, " and Mrs. ",D82," ",F81),""))</f>
+        <v xml:space="preserve">Mr. Brandon and Mrs. Audrey Burris </v>
+      </c>
       <c r="L81" t="str">
         <f t="shared" si="13"/>
         <v>2044 Cottage Lane NW</v>
@@ -7671,7 +7934,7 @@
         <v>30318</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>138</v>
       </c>
@@ -7679,10 +7942,10 @@
         <v>393</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7698,6 +7961,10 @@
       <c r="I82" t="s">
         <v>282</v>
       </c>
+      <c r="J82" t="str">
+        <f>J81</f>
+        <v xml:space="preserve">Mr. Brandon and Mrs. Audrey Burris </v>
+      </c>
       <c r="L82" t="str">
         <f t="shared" si="13"/>
         <v>2044 Cottage Lane NW</v>
@@ -7719,7 +7986,7 @@
         <v>30318</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>140</v>
       </c>
@@ -7727,10 +7994,10 @@
         <v>393</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E83" s="4" t="str">
         <f>LEFT(A83,FIND(" ",A83)-1)</f>
@@ -7747,6 +8014,10 @@
         <f>CONCATENATE(E83," and ",E84," ",F83)</f>
         <v>Hawkeye and Beth Wayne</v>
       </c>
+      <c r="J83" t="str">
+        <f>IF(C83="Single Woman",CONCATENATE("Ms. ",D83," ",F83),IF(C83="Married Couple",CONCATENATE("Mr. ",D83, " and Mrs. ",D84," ",F83),""))</f>
+        <v>Mr. Hawkeye and Mrs. Beth Wayne</v>
+      </c>
       <c r="L83" t="str">
         <f t="shared" si="13"/>
         <v>195 Gardenia Isles Dr</v>
@@ -7768,7 +8039,7 @@
         <v>33418</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>139</v>
       </c>
@@ -7776,10 +8047,10 @@
         <v>393</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7796,6 +8067,10 @@
         <f>CONCATENATE(E83," and ",E84," ",F83)</f>
         <v>Hawkeye and Beth Wayne</v>
       </c>
+      <c r="J84" t="str">
+        <f>J83</f>
+        <v>Mr. Hawkeye and Mrs. Beth Wayne</v>
+      </c>
       <c r="L84" t="str">
         <f t="shared" si="13"/>
         <v>195 Gardenia Isles Dr</v>
@@ -7825,10 +8100,10 @@
         <v>393</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7848,6 +8123,14 @@
         <f>A85</f>
         <v>Kimberly Straub</v>
       </c>
+      <c r="J85" t="str">
+        <f>CONCATENATE("Ms. ",D85," ",F85)</f>
+        <v>Ms. Kimberly Straub</v>
+      </c>
+      <c r="K85" t="str">
+        <f>CONCATENATE("Ms. ",D85," ",F85," and Guest")</f>
+        <v>Ms. Kimberly Straub and Guest</v>
+      </c>
       <c r="L85" t="str">
         <f t="shared" si="13"/>
         <v>261 Bunker Hill St</v>
@@ -7869,7 +8152,7 @@
         <v>02129</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>361</v>
       </c>
@@ -7877,13 +8160,13 @@
         <v>393</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" si="19"/>
@@ -7896,6 +8179,10 @@
         <f>CONCATENATE(E86," and ",E87," ",F86)</f>
         <v>Matt and Cammie Shaefer</v>
       </c>
+      <c r="J86" t="str">
+        <f>IF(C86="Single Woman",CONCATENATE("Ms. ",D86," ",F86),IF(C86="Married Couple",CONCATENATE("Mr. ",D86, " and Mrs. ",D87," ",F86),""))</f>
+        <v>Mr. Matthew and Mrs. Cammie Shaefer</v>
+      </c>
       <c r="L86" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -7917,7 +8204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>362</v>
       </c>
@@ -7925,10 +8212,10 @@
         <v>393</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7945,6 +8232,10 @@
         <f>CONCATENATE(E86," and ",E87," ",F86)</f>
         <v>Matt and Cammie Shaefer</v>
       </c>
+      <c r="J87" t="str">
+        <f>J86</f>
+        <v>Mr. Matthew and Mrs. Cammie Shaefer</v>
+      </c>
       <c r="L87" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
@@ -7966,7 +8257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>372</v>
       </c>
@@ -7974,10 +8265,10 @@
         <v>393</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7994,6 +8285,10 @@
         <f>CONCATENATE(E88," and ",E89," ",F88)</f>
         <v>Jace and Eva Crooke</v>
       </c>
+      <c r="J88" t="str">
+        <f>IF(C88="Single Woman",CONCATENATE("Ms. ",D88," ",F88),IF(C88="Married Couple",CONCATENATE("Mr. ",D88, " and Mrs. ",D89," ",F88),""))</f>
+        <v>Mr. Jace and Mrs. Eva Crooke</v>
+      </c>
       <c r="L88" t="str">
         <f t="shared" si="13"/>
         <v>10440 Greendale Dr</v>
@@ -8015,7 +8310,7 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>373</v>
       </c>
@@ -8023,10 +8318,10 @@
         <v>393</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8043,6 +8338,10 @@
         <f>CONCATENATE(E88," and ",E89," ",F88)</f>
         <v>Jace and Eva Crooke</v>
       </c>
+      <c r="J89" t="str">
+        <f>J88</f>
+        <v>Mr. Jace and Mrs. Eva Crooke</v>
+      </c>
       <c r="L89" t="str">
         <f t="shared" si="13"/>
         <v>10440 Greendale Dr</v>
@@ -8064,7 +8363,7 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>374</v>
       </c>
@@ -8072,10 +8371,10 @@
         <v>393</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8092,6 +8391,10 @@
         <f>CONCATENATE(E90," and ",E91," ",F90)</f>
         <v>Adam and Natasha Yeager</v>
       </c>
+      <c r="J90" t="str">
+        <f>IF(C90="Single Woman",CONCATENATE("Ms. ",D90," ",F90),IF(C90="Married Couple",CONCATENATE("Mr. ",D90, " and Mrs. ",D91," ",F90),""))</f>
+        <v>Mr. Adam and Mrs. Natasha Yeager</v>
+      </c>
       <c r="L90" t="str">
         <f t="shared" si="13"/>
         <v>1694 Willow Street</v>
@@ -8113,7 +8416,7 @@
         <v>80220</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -8121,10 +8424,10 @@
         <v>393</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8141,6 +8444,10 @@
         <f>CONCATENATE(E90," and ",E91," ",F90)</f>
         <v>Adam and Natasha Yeager</v>
       </c>
+      <c r="J91" t="str">
+        <f>J90</f>
+        <v>Mr. Adam and Mrs. Natasha Yeager</v>
+      </c>
       <c r="L91" t="str">
         <f t="shared" si="13"/>
         <v>1694 Willow Street</v>
@@ -8162,7 +8469,7 @@
         <v>80220</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>155</v>
       </c>
@@ -8170,7 +8477,7 @@
         <v>393</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="4" t="str">
@@ -8187,6 +8494,10 @@
       <c r="I92" t="s">
         <v>609</v>
       </c>
+      <c r="J92" t="str">
+        <f>IF(C92="Single Woman",CONCATENATE("Ms. ",D92," ",F92),IF(C92="Married Couple",CONCATENATE("Mr. ",D92, " and Mrs. ",D93," ",F92),""))</f>
+        <v xml:space="preserve">Mr.  and Mrs. Stacy Sissoyev </v>
+      </c>
       <c r="L92" t="str">
         <f t="shared" si="13"/>
         <v>23576 S 213th Street</v>
@@ -8208,7 +8519,7 @@
         <v>85142</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>154</v>
       </c>
@@ -8216,10 +8527,10 @@
         <v>393</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8235,6 +8546,10 @@
       <c r="I93" t="s">
         <v>609</v>
       </c>
+      <c r="J93" t="str">
+        <f>J92</f>
+        <v xml:space="preserve">Mr.  and Mrs. Stacy Sissoyev </v>
+      </c>
       <c r="L93" t="str">
         <f t="shared" si="13"/>
         <v>23576 S 213th Street</v>
@@ -8256,7 +8571,7 @@
         <v>85142</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -8264,10 +8579,10 @@
         <v>393</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8284,6 +8599,10 @@
         <f>CONCATENATE(A94," and ",A95)</f>
         <v>Terrie Uiterwyk and Kevin Shibley</v>
       </c>
+      <c r="J94" t="str">
+        <f>CONCATENATE("Ms. ",D94," ",F94," and Mr. ",D95," ",F95)</f>
+        <v>Ms. Terrie Uiterwyk and Mr. Kevin Shibley</v>
+      </c>
       <c r="L94" t="str">
         <f t="shared" ref="L94:L118" si="20">IF(INDEX(Street,MATCH($I94,Name,0))=0,"",(INDEX(Street,MATCH($I94,Name,0))))</f>
         <v>8024 Hampton Lake Dr</v>
@@ -8305,7 +8624,7 @@
         <v>33647</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>616</v>
       </c>
@@ -8313,10 +8632,10 @@
         <v>393</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8333,6 +8652,10 @@
         <f>CONCATENATE(A94," and ",A95)</f>
         <v>Terrie Uiterwyk and Kevin Shibley</v>
       </c>
+      <c r="J95" t="str">
+        <f>J94</f>
+        <v>Ms. Terrie Uiterwyk and Mr. Kevin Shibley</v>
+      </c>
       <c r="L95" t="str">
         <f t="shared" si="20"/>
         <v>8024 Hampton Lake Dr</v>
@@ -8350,7 +8673,7 @@
         <v>FL</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>12</v>
       </c>
@@ -8358,10 +8681,10 @@
         <v>393</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8399,7 +8722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>188</v>
       </c>
@@ -8407,13 +8730,13 @@
         <v>393</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" si="19"/>
@@ -8447,7 +8770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>189</v>
       </c>
@@ -8455,10 +8778,10 @@
         <v>393</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8475,6 +8798,10 @@
         <f>CONCATENATE(E98," and ",E99," ",F98)</f>
         <v>Greg and Christine VanHorn</v>
       </c>
+      <c r="J98" t="str">
+        <f>IF(C98="Single Woman",CONCATENATE("Ms. ",D98," ",F98),IF(C98="Married Couple",CONCATENATE("Mr. ",D98, " and Mrs. ",D99," ",F98),""))</f>
+        <v>Mr. Greg and Mrs. Christine VanHorn</v>
+      </c>
       <c r="L98" t="str">
         <f t="shared" si="20"/>
         <v>3040 Jasmine Ter</v>
@@ -8496,7 +8823,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>383</v>
       </c>
@@ -8504,10 +8831,10 @@
         <v>393</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8524,6 +8851,10 @@
         <f>CONCATENATE(E98," and ",E99," ",F98)</f>
         <v>Greg and Christine VanHorn</v>
       </c>
+      <c r="J99" t="str">
+        <f>J98</f>
+        <v>Mr. Greg and Mrs. Christine VanHorn</v>
+      </c>
       <c r="L99" t="str">
         <f t="shared" si="20"/>
         <v>3040 Jasmine Ter</v>
@@ -8545,7 +8876,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>190</v>
       </c>
@@ -8553,10 +8884,10 @@
         <v>393</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E100" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8573,6 +8904,10 @@
         <f>CONCATENATE(A100," and ",A101)</f>
         <v>Christian VanHorn and Kandace Bisignano</v>
       </c>
+      <c r="J100" t="str">
+        <f>CONCATENATE("Mr. ",D100," ",F100," and Ms. ",D101," ",F101)</f>
+        <v>Mr. Christian VanHorn and Ms. Kandace Bisignano</v>
+      </c>
       <c r="L100" t="str">
         <f t="shared" si="20"/>
         <v>4427 Main Street</v>
@@ -8594,7 +8929,7 @@
         <v>33458</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>191</v>
       </c>
@@ -8602,10 +8937,10 @@
         <v>393</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8622,6 +8957,10 @@
         <f>CONCATENATE(A100," and ",A101)</f>
         <v>Christian VanHorn and Kandace Bisignano</v>
       </c>
+      <c r="J101" t="str">
+        <f>J100</f>
+        <v>Mr. Christian VanHorn and Ms. Kandace Bisignano</v>
+      </c>
       <c r="L101" t="str">
         <f t="shared" si="20"/>
         <v>4427 Main Street</v>
@@ -8643,7 +8982,7 @@
         <v>33458</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>192</v>
       </c>
@@ -8651,7 +8990,7 @@
         <v>393</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8689,7 +9028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>194</v>
       </c>
@@ -8700,7 +9039,7 @@
         <v>51</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F103" s="4" t="str">
         <f t="shared" si="19"/>
@@ -8734,7 +9073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>193</v>
       </c>
@@ -8742,7 +9081,7 @@
         <v>393</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>238</v>
@@ -8786,7 +9125,7 @@
         <v>33496</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>61</v>
       </c>
@@ -8794,10 +9133,10 @@
         <v>393</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8814,6 +9153,10 @@
         <f>CONCATENATE(E105," and ",E106," ",F105)</f>
         <v>Anthony and Kim Ercolino</v>
       </c>
+      <c r="J105" t="str">
+        <f>IF(C105="Single Woman",CONCATENATE("Ms. ",D105," ",F105),IF(C105="Married Couple",CONCATENATE("Mr. ",D105, " and Mrs. ",D106," ",F105),""))</f>
+        <v>Mr. Anthony and Mrs. Kimberly Ercolino</v>
+      </c>
       <c r="L105" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -8835,7 +9178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>66</v>
       </c>
@@ -8843,13 +9186,13 @@
         <v>393</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F106" s="4" t="str">
         <f t="shared" si="19"/>
@@ -8862,6 +9205,10 @@
         <f>CONCATENATE(E105," and ",E106," ",F105)</f>
         <v>Anthony and Kim Ercolino</v>
       </c>
+      <c r="J106" t="str">
+        <f>J105</f>
+        <v>Mr. Anthony and Mrs. Kimberly Ercolino</v>
+      </c>
       <c r="L106" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -8891,10 +9238,10 @@
         <v>393</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8914,6 +9261,14 @@
         <f>A107</f>
         <v>Dan DeOliveira</v>
       </c>
+      <c r="J107" t="str">
+        <f>CONCATENATE("Mr. ",D107," ",F107)</f>
+        <v>Mr. Daniel DeOliveira</v>
+      </c>
+      <c r="K107" t="str">
+        <f>CONCATENATE("Mr. ",D107," ",F107," and Guest")</f>
+        <v>Mr. Daniel DeOliveira and Guest</v>
+      </c>
       <c r="L107" t="str">
         <f t="shared" si="20"/>
         <v>100 W Prive Cir</v>
@@ -8943,10 +9298,10 @@
         <v>393</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E108" s="4" t="str">
         <f t="shared" si="18"/>
@@ -8966,6 +9321,14 @@
         <f>A108</f>
         <v>Brian Dietlein</v>
       </c>
+      <c r="J108" t="str">
+        <f>CONCATENATE("Mr. ",D108," ",F108)</f>
+        <v>Mr. Brian Dietlein</v>
+      </c>
+      <c r="K108" t="str">
+        <f>CONCATENATE("Mr. ",D108," ",F108," and Guest")</f>
+        <v>Mr. Brian Dietlein and Guest</v>
+      </c>
       <c r="L108" t="str">
         <f t="shared" si="20"/>
         <v>100 W Prive Cir</v>
@@ -8987,7 +9350,7 @@
         <v>33445</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>637</v>
       </c>
@@ -8995,13 +9358,13 @@
         <v>393</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F109" s="4" t="str">
         <f t="shared" si="19"/>
@@ -9014,6 +9377,10 @@
         <f>CONCATENATE(E109," and ",E110," ",F109)</f>
         <v>Joe and Lauren Lanza</v>
       </c>
+      <c r="J109" t="str">
+        <f>IF(C109="Single Woman",CONCATENATE("Ms. ",D109," ",F109),IF(C109="Married Couple",CONCATENATE("Mr. ",D109, " and Mrs. ",D110," ",F109),""))</f>
+        <v>Mr. Joseph and Mrs. Lauren Lanza</v>
+      </c>
       <c r="L109" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9035,7 +9402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
@@ -9043,10 +9410,10 @@
         <v>393</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E110" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9063,6 +9430,10 @@
         <f>CONCATENATE(E109," and ",E110," ",F109)</f>
         <v>Joe and Lauren Lanza</v>
       </c>
+      <c r="J110" t="str">
+        <f>J109</f>
+        <v>Mr. Joseph and Mrs. Lauren Lanza</v>
+      </c>
       <c r="L110" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9084,7 +9455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>198</v>
       </c>
@@ -9092,13 +9463,13 @@
         <v>393</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F111" s="4" t="str">
         <f t="shared" si="19"/>
@@ -9111,6 +9482,10 @@
         <f>CONCATENATE(E111," and ",E112," ",F111)</f>
         <v>Mike and Lianne Coad</v>
       </c>
+      <c r="J111" t="str">
+        <f>IF(C111="Single Woman",CONCATENATE("Ms. ",D111," ",F111),IF(C111="Married Couple",CONCATENATE("Mr. ",D111, " and Mrs. ",D112," ",F111),""))</f>
+        <v>Mr. Michael and Mrs. Lianne Coad</v>
+      </c>
       <c r="L111" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9132,7 +9507,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>105</v>
       </c>
@@ -9140,10 +9515,10 @@
         <v>393</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9160,6 +9535,10 @@
         <f>CONCATENATE(E111," and ",E112," ",F111)</f>
         <v>Mike and Lianne Coad</v>
       </c>
+      <c r="J112" t="str">
+        <f>J111</f>
+        <v>Mr. Michael and Mrs. Lianne Coad</v>
+      </c>
       <c r="L112" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9181,7 +9560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>109</v>
       </c>
@@ -9189,10 +9568,10 @@
         <v>393</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9209,6 +9588,10 @@
         <f>CONCATENATE(E113," and ",E114," ",F113)</f>
         <v>Jacob and Liz Coad</v>
       </c>
+      <c r="J113" t="str">
+        <f>IF(C113="Single Woman",CONCATENATE("Ms. ",D113," ",F113),IF(C113="Married Couple",CONCATENATE("Mr. ",D113, " and Mrs. ",D114," ",F113),""))</f>
+        <v>Mr. Jacob and Mrs. Elizabeth Coad</v>
+      </c>
       <c r="L113" t="str">
         <f t="shared" si="20"/>
         <v>4282 Windemere Pl</v>
@@ -9230,7 +9613,7 @@
         <v>34231</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
@@ -9238,10 +9621,10 @@
         <v>393</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9258,6 +9641,10 @@
         <f>CONCATENATE(E113," and ",E114," ",F113)</f>
         <v>Jacob and Liz Coad</v>
       </c>
+      <c r="J114" t="str">
+        <f>J113</f>
+        <v>Mr. Jacob and Mrs. Elizabeth Coad</v>
+      </c>
       <c r="L114" t="str">
         <f t="shared" si="20"/>
         <v>4282 Windemere Pl</v>
@@ -9279,7 +9666,7 @@
         <v>34231</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>117</v>
       </c>
@@ -9287,10 +9674,10 @@
         <v>393</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9307,6 +9694,10 @@
         <f>CONCATENATE(E115," and ",E116," ",F115)</f>
         <v>Skip and Jessie Warmack</v>
       </c>
+      <c r="J115" t="str">
+        <f>IF(C115="Single Woman",CONCATENATE("Ms. ",D115," ",F115),IF(C115="Married Couple",CONCATENATE("Mr. ",D115, " and Mrs. ",D116," ",F115),""))</f>
+        <v>Mr. Andrew and Mrs. Jessica Warmack</v>
+      </c>
       <c r="L115" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9328,7 +9719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>119</v>
       </c>
@@ -9336,13 +9727,13 @@
         <v>393</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F116" s="4" t="str">
         <f t="shared" si="19"/>
@@ -9355,6 +9746,10 @@
         <f>CONCATENATE(E115," and ",E116," ",F115)</f>
         <v>Skip and Jessie Warmack</v>
       </c>
+      <c r="J116" t="str">
+        <f>J115</f>
+        <v>Mr. Andrew and Mrs. Jessica Warmack</v>
+      </c>
       <c r="L116" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9376,7 +9771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>200</v>
       </c>
@@ -9384,13 +9779,13 @@
         <v>393</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F117" s="4" t="str">
         <f>RIGHT(A117,LEN(A117)-FIND(" ",A117))</f>
@@ -9403,6 +9798,10 @@
         <f>CONCATENATE(E117," and ",E118," ",F117)</f>
         <v>Dave and Rachel Lubinsky</v>
       </c>
+      <c r="J117" t="str">
+        <f>IF(C117="Single Woman",CONCATENATE("Ms. ",D117," ",F117),IF(C117="Married Couple",CONCATENATE("Mr. ",D117, " and Mrs. ",D118," ",F117),""))</f>
+        <v>Mr. David and Mrs. Rachel Lubinsky</v>
+      </c>
       <c r="L117" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9424,7 +9823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>121</v>
       </c>
@@ -9432,10 +9831,10 @@
         <v>393</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E118" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9452,6 +9851,10 @@
         <f>CONCATENATE(E117," and ",E118," ",F117)</f>
         <v>Dave and Rachel Lubinsky</v>
       </c>
+      <c r="J118" t="str">
+        <f>J117</f>
+        <v>Mr. David and Mrs. Rachel Lubinsky</v>
+      </c>
       <c r="L118" t="e">
         <f t="shared" si="20"/>
         <v>#N/A</v>
@@ -9473,7 +9876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>427</v>
       </c>
@@ -9481,10 +9884,10 @@
         <v>393</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E119" s="4" t="str">
         <f>LEFT(A119,FIND(" ",A119)-1)</f>
@@ -9500,8 +9903,12 @@
       <c r="I119" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J119" t="str">
+        <f>CONCATENATE("Mr. ",D119," ",F119," and Ms. ",D120," ",F120)</f>
+        <v>Mr. Neil Scott and Ms. Gail Coad</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>125</v>
       </c>
@@ -9509,10 +9916,10 @@
         <v>393</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E120" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9528,8 +9935,12 @@
       <c r="I120" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J120" t="str">
+        <f>J119</f>
+        <v>Mr. Neil Scott and Ms. Gail Coad</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>127</v>
       </c>
@@ -9537,13 +9948,13 @@
         <v>393</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" si="19"/>
@@ -9556,6 +9967,10 @@
         <f>CONCATENATE(E121," and ",E122," ",F121)</f>
         <v>Rob and Lisa Thomas</v>
       </c>
+      <c r="J121" t="str">
+        <f>IF(C121="Single Woman",CONCATENATE("Ms. ",D121," ",F121),IF(C121="Married Couple",CONCATENATE("Mr. ",D121, " and Mrs. ",D122," ",F121),""))</f>
+        <v>Mr. Robert and Mrs. Lisa Thomas</v>
+      </c>
       <c r="L121" t="str">
         <f t="shared" ref="L121:L132" si="25">IF(INDEX(Street,MATCH($I121,Name,0))=0,"",(INDEX(Street,MATCH($I121,Name,0))))</f>
         <v>5116 73rd St E</v>
@@ -9577,7 +9992,7 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>622</v>
       </c>
@@ -9585,10 +10000,10 @@
         <v>393</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E122" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9605,6 +10020,10 @@
         <f>CONCATENATE(E121," and ",E122," ",F121)</f>
         <v>Rob and Lisa Thomas</v>
       </c>
+      <c r="J122" t="str">
+        <f>J121</f>
+        <v>Mr. Robert and Mrs. Lisa Thomas</v>
+      </c>
       <c r="L122" t="str">
         <f t="shared" si="25"/>
         <v>5116 73rd St E</v>
@@ -9626,7 +10045,7 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
         <v>129</v>
       </c>
@@ -9634,7 +10053,10 @@
         <v>393</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>829</v>
       </c>
       <c r="E123" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9651,6 +10073,10 @@
         <f>CONCATENATE(E123," and ",E124," ",F123)</f>
         <v>Josh and Michelle Wynne</v>
       </c>
+      <c r="J123" t="str">
+        <f>IF(C123="Single Woman",CONCATENATE("Ms. ",D123," ",F123),IF(C123="Married Couple",CONCATENATE("Mr. ",D123, " and Mrs. ",D124," ",F123),""))</f>
+        <v>Mr. Josh and Mrs. Michelle Wynne</v>
+      </c>
       <c r="L123" t="str">
         <f t="shared" si="25"/>
         <v>8323 Lightfoot Dr</v>
@@ -9672,7 +10098,7 @@
         <v>34275</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>130</v>
       </c>
@@ -9680,10 +10106,10 @@
         <v>393</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E124" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9700,6 +10126,10 @@
         <f>CONCATENATE(E123," and ",E124," ",F123)</f>
         <v>Josh and Michelle Wynne</v>
       </c>
+      <c r="J124" t="str">
+        <f>J123</f>
+        <v>Mr. Josh and Mrs. Michelle Wynne</v>
+      </c>
       <c r="L124" t="str">
         <f t="shared" si="25"/>
         <v>8323 Lightfoot Dr</v>
@@ -9729,10 +10159,10 @@
         <v>393</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" ref="E125:E141" si="30">LEFT(A125,FIND(" ",A125)-1)</f>
@@ -9752,6 +10182,14 @@
         <f>A125</f>
         <v>Lisa Dichtel</v>
       </c>
+      <c r="J125" t="str">
+        <f>CONCATENATE("Ms. ",D125," ",F125)</f>
+        <v>Ms. Lisa Dichtel</v>
+      </c>
+      <c r="K125" t="str">
+        <f>CONCATENATE("Ms. ",D125," ",F125," and Guest")</f>
+        <v>Ms. Lisa Dichtel and Guest</v>
+      </c>
       <c r="L125" t="str">
         <f t="shared" si="25"/>
         <v>4904 58th Terrace E</v>
@@ -9773,7 +10211,7 @@
         <v>34203</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>158</v>
       </c>
@@ -9781,13 +10219,13 @@
         <v>394</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F126" s="4" t="str">
         <f>RIGHT(A126,LEN(A126)-FIND(" ",A126))</f>
@@ -9800,6 +10238,10 @@
         <f>CONCATENATE(E126," and ",E127," ",F126)</f>
         <v xml:space="preserve">Pat and Katie Knight </v>
       </c>
+      <c r="J126" t="str">
+        <f>IF(C126="Single Woman",CONCATENATE("Ms. ",D126," ",F126),IF(C126="Married Couple",CONCATENATE("Mr. ",D126, " and Mrs. ",D127," ",F126),""))</f>
+        <v xml:space="preserve">Mr. Patrick and Mrs. Katie Knight </v>
+      </c>
       <c r="L126" t="e">
         <f t="shared" si="25"/>
         <v>#N/A</v>
@@ -9821,7 +10263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
         <v>157</v>
       </c>
@@ -9829,10 +10271,10 @@
         <v>394</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E127" s="4" t="str">
         <f t="shared" si="30"/>
@@ -9849,6 +10291,10 @@
         <f>CONCATENATE(E126," and ",E127," ",F126)</f>
         <v xml:space="preserve">Pat and Katie Knight </v>
       </c>
+      <c r="J127" t="str">
+        <f>J126</f>
+        <v xml:space="preserve">Mr. Patrick and Mrs. Katie Knight </v>
+      </c>
       <c r="L127" t="e">
         <f t="shared" si="25"/>
         <v>#N/A</v>
@@ -9870,7 +10316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
         <v>619</v>
       </c>
@@ -9878,10 +10324,10 @@
         <v>394</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E128" s="4" t="str">
         <f>LEFT(A128,FIND(" ",A128)-1)</f>
@@ -9898,6 +10344,10 @@
         <f>CONCATENATE(E128," and ",E129," ",F128)</f>
         <v xml:space="preserve">Fredrik and Ana Malmqvist </v>
       </c>
+      <c r="J128" t="str">
+        <f>IF(C128="Single Woman",CONCATENATE("Ms. ",D128," ",F128),IF(C128="Married Couple",CONCATENATE("Mr. ",D128, " and Mrs. ",D129," ",F128),""))</f>
+        <v xml:space="preserve">Mr. Fredrik and Mrs. Ana Malmqvist </v>
+      </c>
       <c r="L128" t="str">
         <f t="shared" si="25"/>
         <v>3400 West Talcon St</v>
@@ -9919,7 +10369,7 @@
         <v>33629</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>620</v>
       </c>
@@ -9927,10 +10377,10 @@
         <v>394</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E129" s="4" t="str">
         <f t="shared" si="30"/>
@@ -9947,6 +10397,10 @@
         <f>CONCATENATE(E128," and ",E129," ",F128)</f>
         <v xml:space="preserve">Fredrik and Ana Malmqvist </v>
       </c>
+      <c r="J129" t="str">
+        <f>J128</f>
+        <v xml:space="preserve">Mr. Fredrik and Mrs. Ana Malmqvist </v>
+      </c>
       <c r="L129" t="str">
         <f t="shared" si="25"/>
         <v>3400 West Talcon St</v>
@@ -9976,10 +10430,10 @@
         <v>394</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E130" s="4" t="str">
         <f t="shared" si="30"/>
@@ -9999,6 +10453,14 @@
         <f>A130</f>
         <v>Robin Hurley</v>
       </c>
+      <c r="J130" t="str">
+        <f>CONCATENATE("Ms. ",D130," ",F130)</f>
+        <v>Ms. Robin Hurley</v>
+      </c>
+      <c r="K130" t="str">
+        <f>CONCATENATE("Ms. ",D130," ",F130," and Guest")</f>
+        <v>Ms. Robin Hurley and Guest</v>
+      </c>
       <c r="L130" t="str">
         <f t="shared" si="25"/>
         <v>4512 West San Rafael St</v>
@@ -10020,7 +10482,7 @@
         <v>33629</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>199</v>
       </c>
@@ -10028,13 +10490,13 @@
         <v>394</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F131" s="4" t="str">
         <f t="shared" si="31"/>
@@ -10047,6 +10509,10 @@
         <f>CONCATENATE(E131," and ",E132," ",F131)</f>
         <v xml:space="preserve">Mike and Paula Kehoe </v>
       </c>
+      <c r="J131" t="str">
+        <f>IF(C131="Single Woman",CONCATENATE("Ms. ",D131," ",F131),IF(C131="Married Couple",CONCATENATE("Mr. ",D131, " and Mrs. ",D132," ",F131),""))</f>
+        <v xml:space="preserve">Mr. Michael and Mrs. Paula Kehoe </v>
+      </c>
       <c r="L131" t="e">
         <f t="shared" si="25"/>
         <v>#N/A</v>
@@ -10068,7 +10534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
         <v>166</v>
       </c>
@@ -10076,10 +10542,10 @@
         <v>394</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E132" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10096,6 +10562,10 @@
         <f>CONCATENATE(E131," and ",E132," ",F131)</f>
         <v xml:space="preserve">Mike and Paula Kehoe </v>
       </c>
+      <c r="J132" t="str">
+        <f>J131</f>
+        <v xml:space="preserve">Mr. Michael and Mrs. Paula Kehoe </v>
+      </c>
       <c r="L132" t="e">
         <f t="shared" si="25"/>
         <v>#N/A</v>
@@ -10117,7 +10587,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>182</v>
       </c>
@@ -10125,13 +10595,13 @@
         <v>394</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F133" s="4" t="str">
         <f t="shared" si="31"/>
@@ -10144,8 +10614,12 @@
         <f>CONCATENATE(E133," and ",E134," ",F133)</f>
         <v>Jim and Nancy Fitch</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J133" t="str">
+        <f>IF(C133="Single Woman",CONCATENATE("Ms. ",D133," ",F133),IF(C133="Married Couple",CONCATENATE("Mr. ",D133, " and Mrs. ",D134," ",F133),""))</f>
+        <v>Mr. James and Mrs. Nancy Fitch</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
         <v>181</v>
       </c>
@@ -10153,10 +10627,10 @@
         <v>394</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E134" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10173,6 +10647,10 @@
         <f>CONCATENATE(E133," and ",E134," ",F133)</f>
         <v>Jim and Nancy Fitch</v>
       </c>
+      <c r="J134" t="str">
+        <f>J133</f>
+        <v>Mr. James and Mrs. Nancy Fitch</v>
+      </c>
       <c r="L134" t="e">
         <f t="shared" ref="L134:L149" si="32">IF(INDEX(Street,MATCH($I134,Name,0))=0,"",(INDEX(Street,MATCH($I134,Name,0))))</f>
         <v>#N/A</v>
@@ -10190,7 +10668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>390</v>
       </c>
@@ -10198,10 +10676,10 @@
         <v>391</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10217,6 +10695,10 @@
       <c r="I135" t="s">
         <v>630</v>
       </c>
+      <c r="J135" t="str">
+        <f>CONCATENATE("Mr. ",D135," ",F135," and Ms. ",D136," ",F136)</f>
+        <v>Mr. Colby Dennis and Ms. Kelcy Smith</v>
+      </c>
       <c r="L135" t="str">
         <f t="shared" si="32"/>
         <v>5916 Lamoya Ave</v>
@@ -10238,7 +10720,7 @@
         <v>32210</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>631</v>
       </c>
@@ -10246,10 +10728,10 @@
         <v>391</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E136" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10265,6 +10747,10 @@
       <c r="I136" t="s">
         <v>630</v>
       </c>
+      <c r="J136" t="str">
+        <f>J135</f>
+        <v>Mr. Colby Dennis and Ms. Kelcy Smith</v>
+      </c>
       <c r="L136" t="str">
         <f t="shared" si="32"/>
         <v>5916 Lamoya Ave</v>
@@ -10290,10 +10776,10 @@
         <v>393</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E137" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10312,6 +10798,14 @@
       <c r="I137" t="s">
         <v>299</v>
       </c>
+      <c r="J137" t="str">
+        <f>CONCATENATE("Ms. ",D137," ",F137)</f>
+        <v>Ms. Katie Conley</v>
+      </c>
+      <c r="K137" t="str">
+        <f>CONCATENATE("Ms. ",D137," ",F137," and Guest")</f>
+        <v>Ms. Katie Conley and Guest</v>
+      </c>
       <c r="L137" t="str">
         <f t="shared" si="32"/>
         <v>1172 Berkman Circle</v>
@@ -10329,7 +10823,7 @@
         <v>32771</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>639</v>
       </c>
@@ -10337,13 +10831,13 @@
         <v>393</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>685</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F138" s="4" t="str">
         <f t="shared" si="31"/>
@@ -10356,6 +10850,10 @@
         <f>CONCATENATE(E138," and ",E139," ",F138)</f>
         <v>Skip and Barb Hobba</v>
       </c>
+      <c r="J138" t="str">
+        <f>IF(C138="Single Woman",CONCATENATE("Ms. ",D138," ",F138),IF(C138="Married Couple",CONCATENATE("Mr. ",D138, " and Mrs. ",D139," ",F138),""))</f>
+        <v>Mr. Irvin and Mrs. Barbara Hobba</v>
+      </c>
       <c r="L138" t="e">
         <f t="shared" si="32"/>
         <v>#N/A</v>
@@ -10373,7 +10871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>640</v>
       </c>
@@ -10381,13 +10879,13 @@
         <v>393</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>686</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F139" s="4" t="str">
         <f t="shared" si="31"/>
@@ -10400,6 +10898,10 @@
         <f>CONCATENATE(E138," and ",E139," ",F138)</f>
         <v>Skip and Barb Hobba</v>
       </c>
+      <c r="J139" t="str">
+        <f>J138</f>
+        <v>Mr. Irvin and Mrs. Barbara Hobba</v>
+      </c>
       <c r="L139" t="e">
         <f t="shared" si="32"/>
         <v>#N/A</v>
@@ -10417,7 +10919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>651</v>
       </c>
@@ -10425,10 +10927,10 @@
         <v>393</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E140" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10444,6 +10946,10 @@
       <c r="I140" t="s">
         <v>653</v>
       </c>
+      <c r="J140" t="str">
+        <f>IF(C140="Single Woman",CONCATENATE("Ms. ",D140," ",F140),IF(C140="Married Couple",CONCATENATE("Mr. ",D140, " and Mrs. ",D141," ",F140),""))</f>
+        <v>Mr. Andrew and Mrs. Shannon Fernandez</v>
+      </c>
       <c r="L140" t="str">
         <f t="shared" si="32"/>
         <v>7954 23rd Ave N</v>
@@ -10461,7 +10967,7 @@
         <v>33710</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>652</v>
       </c>
@@ -10469,10 +10975,10 @@
         <v>393</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E141" s="4" t="str">
         <f t="shared" si="30"/>
@@ -10488,6 +10994,10 @@
       <c r="I141" t="s">
         <v>653</v>
       </c>
+      <c r="J141" t="str">
+        <f>J140</f>
+        <v>Mr. Andrew and Mrs. Shannon Fernandez</v>
+      </c>
       <c r="L141" t="str">
         <f t="shared" si="32"/>
         <v>7954 23rd Ave N</v>
@@ -10505,7 +11015,7 @@
         <v>33710</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>94</v>
       </c>
@@ -10513,7 +11023,7 @@
         <v>392</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="4" t="str">
@@ -10530,6 +11040,10 @@
       <c r="I142" t="s">
         <v>657</v>
       </c>
+      <c r="J142" t="str">
+        <f>IF(C142="Single Woman",CONCATENATE("Ms. ",D142," ",F142),IF(C142="Married Couple",CONCATENATE("Mr. ",D142, " and Mrs. ",D143," ",F142),""))</f>
+        <v>Mr.  and Mrs. Jane Hampton</v>
+      </c>
       <c r="L142" t="str">
         <f t="shared" si="32"/>
         <v>130 Highland Park Dr</v>
@@ -10547,7 +11061,7 @@
         <v>35242</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>98</v>
       </c>
@@ -10555,10 +11069,10 @@
         <v>392</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E143" s="4" t="str">
         <f t="shared" si="36"/>
@@ -10574,6 +11088,10 @@
       <c r="I143" t="s">
         <v>657</v>
       </c>
+      <c r="J143" t="str">
+        <f>J142</f>
+        <v>Mr.  and Mrs. Jane Hampton</v>
+      </c>
       <c r="L143" t="str">
         <f t="shared" si="32"/>
         <v>130 Highland Park Dr</v>
@@ -10591,7 +11109,7 @@
         <v>35242</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>103</v>
       </c>
@@ -10599,7 +11117,7 @@
         <v>392</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="4" t="str">
@@ -10616,6 +11134,10 @@
       <c r="I144" t="s">
         <v>658</v>
       </c>
+      <c r="J144" t="str">
+        <f>IF(C144="Single Woman",CONCATENATE("Ms. ",D144," ",F144),IF(C144="Married Couple",CONCATENATE("Mr. ",D144, " and Mrs. ",D145," ",F144),""))</f>
+        <v>Mr.  and Mrs. Lynda Cole</v>
+      </c>
       <c r="L144" t="str">
         <f t="shared" si="32"/>
         <v>930 Menomiee Rd</v>
@@ -10633,7 +11155,7 @@
         <v>35755</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>108</v>
       </c>
@@ -10641,10 +11163,10 @@
         <v>392</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="36"/>
@@ -10660,6 +11182,10 @@
       <c r="I145" t="s">
         <v>658</v>
       </c>
+      <c r="J145" t="str">
+        <f>J144</f>
+        <v>Mr.  and Mrs. Lynda Cole</v>
+      </c>
       <c r="L145" t="str">
         <f t="shared" si="32"/>
         <v>930 Menomiee Rd</v>
@@ -10677,7 +11203,7 @@
         <v>35755</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
         <v>112</v>
       </c>
@@ -10685,13 +11211,13 @@
         <v>392</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F146" s="4" t="str">
         <f t="shared" si="37"/>
@@ -10703,6 +11229,10 @@
       <c r="I146" t="s">
         <v>659</v>
       </c>
+      <c r="J146" t="str">
+        <f>IF(C146="Single Woman",CONCATENATE("Ms. ",D146," ",F146),IF(C146="Married Couple",CONCATENATE("Mr. ",D146, " and Mrs. ",D147," ",F146),""))</f>
+        <v>Mr. Michael and Mrs. Marie McCollum</v>
+      </c>
       <c r="L146" t="str">
         <f t="shared" si="32"/>
         <v>PO Box 907</v>
@@ -10720,7 +11250,7 @@
         <v>35950</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>116</v>
       </c>
@@ -10728,10 +11258,10 @@
         <v>392</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E147" s="4" t="str">
         <f t="shared" si="36"/>
@@ -10747,6 +11277,10 @@
       <c r="I147" t="s">
         <v>659</v>
       </c>
+      <c r="J147" t="str">
+        <f>J146</f>
+        <v>Mr. Michael and Mrs. Marie McCollum</v>
+      </c>
       <c r="L147" t="str">
         <f t="shared" si="32"/>
         <v>PO Box 907</v>
@@ -10764,24 +11298,24 @@
         <v>35950</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F148" s="4" t="str">
-        <f t="shared" ref="F148:F149" si="38">RIGHT(A148,LEN(A148)-FIND(" ",A148))</f>
+        <f t="shared" ref="F148:F150" si="38">RIGHT(A148,LEN(A148)-FIND(" ",A148))</f>
         <v>Ruka</v>
       </c>
       <c r="G148" s="10">
@@ -10790,7 +11324,10 @@
       <c r="I148" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J148" s="4"/>
+      <c r="J148" t="str">
+        <f>IF(C148="Single Woman",CONCATENATE("Ms. ",D148," ",F148),IF(C148="Married Couple",CONCATENATE("Mr. ",D148, " and Mrs. ",D149," ",F148),""))</f>
+        <v>Mr. Stephen and Mrs. Nada Ruka</v>
+      </c>
       <c r="K148" s="4"/>
       <c r="L148" t="str">
         <f t="shared" si="32"/>
@@ -10809,21 +11346,21 @@
         <v>33813</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>696</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f t="shared" ref="E148:E149" si="39">LEFT(A149,FIND(" ",A149)-1)</f>
+        <f t="shared" ref="E149" si="39">LEFT(A149,FIND(" ",A149)-1)</f>
         <v>Nada</v>
       </c>
       <c r="F149" s="4" t="str">
@@ -10836,7 +11373,10 @@
       <c r="I149" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J149" s="4"/>
+      <c r="J149" t="str">
+        <f>J148</f>
+        <v>Mr. Stephen and Mrs. Nada Ruka</v>
+      </c>
       <c r="K149" s="4"/>
       <c r="L149" t="str">
         <f t="shared" si="32"/>
@@ -10855,7 +11395,19 @@
         <v>33813</v>
       </c>
     </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:P149">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Single Man"/>
+        <filter val="Single Woman"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
